--- a/Lessons/实验室安全学/《实验室安全学》考场安排2017.xlsx
+++ b/Lessons/实验室安全学/《实验室安全学》考场安排2017.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpaceOfGit\gitTest\Lessons\实验室安全学\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="516" windowWidth="9528" windowHeight="6816"/>
+    <workbookView xWindow="480" yWindow="510" windowWidth="9525" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
@@ -4332,8 +4338,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4419,6 +4425,22 @@
     <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -4697,7 +4719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4752,15 +4774,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4779,18 +4792,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4806,28 +4807,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -4878,8 +4861,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4904,6 +4935,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4952,7 +4986,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4985,9 +5019,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5020,6 +5071,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -5199,248 +5267,248 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V67" sqref="V67"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
-    <col min="2" max="19" width="9.6640625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="6.625" style="2" customWidth="1"/>
+    <col min="2" max="19" width="9.625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-    </row>
-    <row r="2" spans="1:19" ht="34.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+    </row>
+    <row r="2" spans="1:19" ht="34.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-    </row>
-    <row r="3" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+    </row>
+    <row r="3" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="36" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="27" t="s">
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="28"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="60" t="s">
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="57"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="59"/>
+      <c r="B4" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29" t="s">
+      <c r="E4" s="51"/>
+      <c r="F4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="37" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37" t="s">
+      <c r="I4" s="53"/>
+      <c r="J4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37" t="s">
+      <c r="K4" s="53"/>
+      <c r="L4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="29" t="s">
+      <c r="M4" s="53"/>
+      <c r="N4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29" t="s">
+      <c r="O4" s="51"/>
+      <c r="P4" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29" t="s">
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="S4" s="30"/>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="40" t="s">
+      <c r="S4" s="52"/>
+    </row>
+    <row r="5" spans="1:19" s="3" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="60"/>
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="J5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="31" t="s">
+      <c r="O5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="31" t="s">
+      <c r="P5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="Q5" s="31" t="s">
+      <c r="Q5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" s="26">
         <v>1</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>41403016</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="20" t="s">
         <v>672</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="20" t="s">
         <v>673</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="33" t="s">
         <v>870</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="34" t="s">
         <v>871</v>
       </c>
-      <c r="N6" s="25" t="s">
+      <c r="N6" s="22" t="s">
         <v>976</v>
       </c>
-      <c r="O6" s="22" t="s">
+      <c r="O6" s="19" t="s">
         <v>977</v>
       </c>
-      <c r="P6" s="22" t="s">
+      <c r="P6" s="19" t="s">
         <v>1114</v>
       </c>
-      <c r="Q6" s="22" t="s">
+      <c r="Q6" s="19" t="s">
         <v>1115</v>
       </c>
-      <c r="R6" s="44" t="s">
+      <c r="R6" s="31" t="s">
         <v>1312</v>
       </c>
-      <c r="S6" s="45" t="s">
+      <c r="S6" s="32" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="27">
         <v>2</v>
       </c>
       <c r="B7" s="5">
@@ -5455,10 +5523,10 @@
       <c r="E7" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="35" t="s">
         <v>412</v>
       </c>
-      <c r="G7" s="49" t="s">
+      <c r="G7" s="36" t="s">
         <v>413</v>
       </c>
       <c r="H7" s="12" t="s">
@@ -5473,10 +5541,10 @@
       <c r="K7" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="37" t="s">
         <v>872</v>
       </c>
-      <c r="M7" s="51" t="s">
+      <c r="M7" s="38" t="s">
         <v>873</v>
       </c>
       <c r="N7" s="10" t="s">
@@ -5491,15 +5559,15 @@
       <c r="Q7" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="R7" s="48" t="s">
+      <c r="R7" s="35" t="s">
         <v>1314</v>
       </c>
-      <c r="S7" s="49" t="s">
+      <c r="S7" s="36" t="s">
         <v>1315</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A8" s="27">
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -5514,10 +5582,10 @@
       <c r="E8" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="F8" s="48" t="s">
+      <c r="F8" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="G8" s="49" t="s">
+      <c r="G8" s="36" t="s">
         <v>415</v>
       </c>
       <c r="H8" s="12" t="s">
@@ -5532,10 +5600,10 @@
       <c r="K8" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="L8" s="50" t="s">
+      <c r="L8" s="37" t="s">
         <v>874</v>
       </c>
-      <c r="M8" s="51" t="s">
+      <c r="M8" s="38" t="s">
         <v>875</v>
       </c>
       <c r="N8" s="10" t="s">
@@ -5550,15 +5618,15 @@
       <c r="Q8" s="6" t="s">
         <v>1119</v>
       </c>
-      <c r="R8" s="48" t="s">
+      <c r="R8" s="35" t="s">
         <v>1316</v>
       </c>
-      <c r="S8" s="49" t="s">
+      <c r="S8" s="36" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A9" s="27">
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -5573,10 +5641,10 @@
       <c r="E9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="35" t="s">
         <v>416</v>
       </c>
-      <c r="G9" s="49" t="s">
+      <c r="G9" s="36" t="s">
         <v>417</v>
       </c>
       <c r="H9" s="12" t="s">
@@ -5591,10 +5659,10 @@
       <c r="K9" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="L9" s="50" t="s">
+      <c r="L9" s="37" t="s">
         <v>876</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="38" t="s">
         <v>877</v>
       </c>
       <c r="N9" s="10" t="s">
@@ -5609,15 +5677,15 @@
       <c r="Q9" s="6" t="s">
         <v>1121</v>
       </c>
-      <c r="R9" s="48" t="s">
+      <c r="R9" s="35" t="s">
         <v>1318</v>
       </c>
-      <c r="S9" s="49" t="s">
+      <c r="S9" s="36" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A10" s="27">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -5632,10 +5700,10 @@
       <c r="E10" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="G10" s="36" t="s">
         <v>419</v>
       </c>
       <c r="H10" s="12" t="s">
@@ -5650,33 +5718,33 @@
       <c r="K10" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="L10" s="50" t="s">
+      <c r="L10" s="37" t="s">
         <v>878</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="38" t="s">
         <v>879</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="N10" s="61" t="s">
         <v>984</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="62" t="s">
         <v>985</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="P10" s="63" t="s">
         <v>1122</v>
       </c>
       <c r="Q10" s="6" t="s">
         <v>1123</v>
       </c>
-      <c r="R10" s="48" t="s">
+      <c r="R10" s="35" t="s">
         <v>1320</v>
       </c>
-      <c r="S10" s="49" t="s">
+      <c r="S10" s="36" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="27">
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -5691,10 +5759,10 @@
       <c r="E11" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="35" t="s">
         <v>420</v>
       </c>
-      <c r="G11" s="49" t="s">
+      <c r="G11" s="36" t="s">
         <v>421</v>
       </c>
       <c r="H11" s="12" t="s">
@@ -5709,10 +5777,10 @@
       <c r="K11" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L11" s="37" t="s">
         <v>880</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="38" t="s">
         <v>881</v>
       </c>
       <c r="N11" s="10" t="s">
@@ -5727,15 +5795,15 @@
       <c r="Q11" s="7" t="s">
         <v>1125</v>
       </c>
-      <c r="R11" s="48" t="s">
+      <c r="R11" s="35" t="s">
         <v>1322</v>
       </c>
-      <c r="S11" s="49" t="s">
+      <c r="S11" s="36" t="s">
         <v>1323</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="27">
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -5750,10 +5818,10 @@
       <c r="E12" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="35" t="s">
         <v>422</v>
       </c>
-      <c r="G12" s="49" t="s">
+      <c r="G12" s="36" t="s">
         <v>423</v>
       </c>
       <c r="H12" s="12" t="s">
@@ -5768,10 +5836,10 @@
       <c r="K12" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="L12" s="37" t="s">
         <v>882</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="38" t="s">
         <v>883</v>
       </c>
       <c r="N12" s="10" t="s">
@@ -5786,15 +5854,15 @@
       <c r="Q12" s="7" t="s">
         <v>1127</v>
       </c>
-      <c r="R12" s="48" t="s">
+      <c r="R12" s="35" t="s">
         <v>1324</v>
       </c>
-      <c r="S12" s="49" t="s">
+      <c r="S12" s="36" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="27">
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -5809,10 +5877,10 @@
       <c r="E13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="G13" s="49" t="s">
+      <c r="G13" s="36" t="s">
         <v>425</v>
       </c>
       <c r="H13" s="12" t="s">
@@ -5827,10 +5895,10 @@
       <c r="K13" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="L13" s="37" t="s">
         <v>884</v>
       </c>
-      <c r="M13" s="51" t="s">
+      <c r="M13" s="38" t="s">
         <v>885</v>
       </c>
       <c r="N13" s="10" t="s">
@@ -5845,15 +5913,15 @@
       <c r="Q13" s="7" t="s">
         <v>1129</v>
       </c>
-      <c r="R13" s="48" t="s">
+      <c r="R13" s="35" t="s">
         <v>1326</v>
       </c>
-      <c r="S13" s="49" t="s">
+      <c r="S13" s="36" t="s">
         <v>1327</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="27">
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -5868,10 +5936,10 @@
       <c r="E14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="G14" s="49" t="s">
+      <c r="G14" s="36" t="s">
         <v>427</v>
       </c>
       <c r="H14" s="12" t="s">
@@ -5886,10 +5954,10 @@
       <c r="K14" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="L14" s="37" t="s">
         <v>886</v>
       </c>
-      <c r="M14" s="51" t="s">
+      <c r="M14" s="38" t="s">
         <v>887</v>
       </c>
       <c r="N14" s="10" t="s">
@@ -5904,15 +5972,15 @@
       <c r="Q14" s="7" t="s">
         <v>1131</v>
       </c>
-      <c r="R14" s="48" t="s">
+      <c r="R14" s="35" t="s">
         <v>1328</v>
       </c>
-      <c r="S14" s="49" t="s">
+      <c r="S14" s="36" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="27">
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -5927,10 +5995,10 @@
       <c r="E15" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="36" t="s">
         <v>429</v>
       </c>
       <c r="H15" s="12" t="s">
@@ -5945,10 +6013,10 @@
       <c r="K15" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="37" t="s">
         <v>888</v>
       </c>
-      <c r="M15" s="51" t="s">
+      <c r="M15" s="38" t="s">
         <v>889</v>
       </c>
       <c r="N15" s="10" t="s">
@@ -5963,15 +6031,15 @@
       <c r="Q15" s="7" t="s">
         <v>1133</v>
       </c>
-      <c r="R15" s="48" t="s">
+      <c r="R15" s="35" t="s">
         <v>1330</v>
       </c>
-      <c r="S15" s="49" t="s">
+      <c r="S15" s="36" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" s="27">
         <v>11</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -5980,16 +6048,16 @@
       <c r="C16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D16" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F16" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="G16" s="49" t="s">
+      <c r="G16" s="36" t="s">
         <v>431</v>
       </c>
       <c r="H16" s="12" t="s">
@@ -5998,16 +6066,16 @@
       <c r="I16" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="J16" s="37" t="s">
         <v>692</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="37" t="s">
         <v>693</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="L16" s="37" t="s">
         <v>890</v>
       </c>
-      <c r="M16" s="51" t="s">
+      <c r="M16" s="38" t="s">
         <v>891</v>
       </c>
       <c r="N16" s="10" t="s">
@@ -6022,15 +6090,15 @@
       <c r="Q16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="48" t="s">
+      <c r="R16" s="35" t="s">
         <v>1332</v>
       </c>
-      <c r="S16" s="49" t="s">
+      <c r="S16" s="36" t="s">
         <v>1333</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" s="27">
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -6039,16 +6107,16 @@
       <c r="C17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D17" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F17" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="36" t="s">
         <v>433</v>
       </c>
       <c r="H17" s="12" t="s">
@@ -6057,16 +6125,16 @@
       <c r="I17" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="37" t="s">
         <v>694</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="37" t="s">
         <v>695</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="L17" s="37" t="s">
         <v>892</v>
       </c>
-      <c r="M17" s="51" t="s">
+      <c r="M17" s="38" t="s">
         <v>893</v>
       </c>
       <c r="N17" s="10" t="s">
@@ -6081,15 +6149,15 @@
       <c r="Q17" s="7" t="s">
         <v>1136</v>
       </c>
-      <c r="R17" s="48" t="s">
+      <c r="R17" s="35" t="s">
         <v>1334</v>
       </c>
-      <c r="S17" s="49" t="s">
+      <c r="S17" s="36" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" s="27">
         <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -6098,16 +6166,16 @@
       <c r="C18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="48" t="s">
+      <c r="E18" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="F18" s="48" t="s">
+      <c r="F18" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="G18" s="49" t="s">
+      <c r="G18" s="36" t="s">
         <v>435</v>
       </c>
       <c r="H18" s="12" t="s">
@@ -6116,16 +6184,16 @@
       <c r="I18" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="37" t="s">
         <v>696</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="L18" s="37" t="s">
         <v>894</v>
       </c>
-      <c r="M18" s="51" t="s">
+      <c r="M18" s="38" t="s">
         <v>895</v>
       </c>
       <c r="N18" s="10" t="s">
@@ -6140,15 +6208,15 @@
       <c r="Q18" s="7" t="s">
         <v>1138</v>
       </c>
-      <c r="R18" s="48" t="s">
+      <c r="R18" s="35" t="s">
         <v>1336</v>
       </c>
-      <c r="S18" s="49" t="s">
+      <c r="S18" s="36" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" s="27">
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -6157,16 +6225,16 @@
       <c r="C19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="35" t="s">
         <v>436</v>
       </c>
-      <c r="G19" s="49" t="s">
+      <c r="G19" s="36" t="s">
         <v>437</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -6175,16 +6243,16 @@
       <c r="I19" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="J19" s="37" t="s">
         <v>698</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="37" t="s">
         <v>699</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="L19" s="37" t="s">
         <v>896</v>
       </c>
-      <c r="M19" s="51" t="s">
+      <c r="M19" s="38" t="s">
         <v>897</v>
       </c>
       <c r="N19" s="10" t="s">
@@ -6199,15 +6267,15 @@
       <c r="Q19" s="7" t="s">
         <v>1140</v>
       </c>
-      <c r="R19" s="48" t="s">
+      <c r="R19" s="35" t="s">
         <v>1338</v>
       </c>
-      <c r="S19" s="49" t="s">
+      <c r="S19" s="36" t="s">
         <v>1339</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20" s="27">
         <v>15</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -6216,16 +6284,16 @@
       <c r="C20" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="E20" s="48" t="s">
+      <c r="E20" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="G20" s="49" t="s">
+      <c r="G20" s="36" t="s">
         <v>439</v>
       </c>
       <c r="H20" s="12" t="s">
@@ -6234,16 +6302,16 @@
       <c r="I20" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="J20" s="37" t="s">
         <v>700</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="K20" s="37" t="s">
         <v>701</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="L20" s="37" t="s">
         <v>898</v>
       </c>
-      <c r="M20" s="51" t="s">
+      <c r="M20" s="38" t="s">
         <v>899</v>
       </c>
       <c r="N20" s="10" t="s">
@@ -6258,15 +6326,15 @@
       <c r="Q20" s="7" t="s">
         <v>1142</v>
       </c>
-      <c r="R20" s="48" t="s">
+      <c r="R20" s="35" t="s">
         <v>1340</v>
       </c>
-      <c r="S20" s="49" t="s">
+      <c r="S20" s="36" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A21" s="27">
         <v>16</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -6275,16 +6343,16 @@
       <c r="C21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="E21" s="48" t="s">
+      <c r="E21" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="F21" s="48" t="s">
+      <c r="F21" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="36" t="s">
         <v>441</v>
       </c>
       <c r="H21" s="12" t="s">
@@ -6293,16 +6361,16 @@
       <c r="I21" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="J21" s="37" t="s">
         <v>702</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="K21" s="37" t="s">
         <v>703</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="L21" s="37" t="s">
         <v>900</v>
       </c>
-      <c r="M21" s="51" t="s">
+      <c r="M21" s="38" t="s">
         <v>901</v>
       </c>
       <c r="N21" s="10" t="s">
@@ -6317,15 +6385,15 @@
       <c r="Q21" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="R21" s="48" t="s">
+      <c r="R21" s="35" t="s">
         <v>1342</v>
       </c>
-      <c r="S21" s="49" t="s">
+      <c r="S21" s="36" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A22" s="27">
         <v>17</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -6334,16 +6402,16 @@
       <c r="C22" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F22" s="35" t="s">
         <v>442</v>
       </c>
-      <c r="G22" s="49" t="s">
+      <c r="G22" s="36" t="s">
         <v>443</v>
       </c>
       <c r="H22" s="12" t="s">
@@ -6352,16 +6420,16 @@
       <c r="I22" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="J22" s="37" t="s">
         <v>704</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="K22" s="37" t="s">
         <v>705</v>
       </c>
-      <c r="L22" s="50" t="s">
+      <c r="L22" s="37" t="s">
         <v>902</v>
       </c>
-      <c r="M22" s="51" t="s">
+      <c r="M22" s="38" t="s">
         <v>903</v>
       </c>
       <c r="N22" s="10" t="s">
@@ -6376,15 +6444,15 @@
       <c r="Q22" s="7" t="s">
         <v>1146</v>
       </c>
-      <c r="R22" s="48" t="s">
+      <c r="R22" s="35" t="s">
         <v>1344</v>
       </c>
-      <c r="S22" s="49" t="s">
+      <c r="S22" s="36" t="s">
         <v>1345</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23" s="27">
         <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -6393,16 +6461,16 @@
       <c r="C23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="48" t="s">
+      <c r="D23" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="E23" s="48" t="s">
+      <c r="E23" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="G23" s="49" t="s">
+      <c r="G23" s="36" t="s">
         <v>445</v>
       </c>
       <c r="H23" s="12" t="s">
@@ -6411,16 +6479,16 @@
       <c r="I23" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="37" t="s">
         <v>706</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="37" t="s">
         <v>707</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="37" t="s">
         <v>904</v>
       </c>
-      <c r="M23" s="51" t="s">
+      <c r="M23" s="38" t="s">
         <v>905</v>
       </c>
       <c r="N23" s="10" t="s">
@@ -6435,15 +6503,15 @@
       <c r="Q23" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="R23" s="48" t="s">
+      <c r="R23" s="35" t="s">
         <v>1346</v>
       </c>
-      <c r="S23" s="49" t="s">
+      <c r="S23" s="36" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" s="27">
         <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -6452,16 +6520,16 @@
       <c r="C24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="48" t="s">
+      <c r="D24" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="F24" s="48" t="s">
+      <c r="F24" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="G24" s="49" t="s">
+      <c r="G24" s="36" t="s">
         <v>447</v>
       </c>
       <c r="H24" s="12" t="s">
@@ -6470,16 +6538,16 @@
       <c r="I24" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="J24" s="50" t="s">
+      <c r="J24" s="37" t="s">
         <v>708</v>
       </c>
-      <c r="K24" s="50" t="s">
+      <c r="K24" s="37" t="s">
         <v>709</v>
       </c>
-      <c r="L24" s="50" t="s">
+      <c r="L24" s="37" t="s">
         <v>906</v>
       </c>
-      <c r="M24" s="51" t="s">
+      <c r="M24" s="38" t="s">
         <v>907</v>
       </c>
       <c r="N24" s="10" t="s">
@@ -6494,15 +6562,15 @@
       <c r="Q24" s="7" t="s">
         <v>1150</v>
       </c>
-      <c r="R24" s="48" t="s">
+      <c r="R24" s="35" t="s">
         <v>1348</v>
       </c>
-      <c r="S24" s="49" t="s">
+      <c r="S24" s="36" t="s">
         <v>1349</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A25" s="27">
         <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -6511,16 +6579,16 @@
       <c r="C25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="48" t="s">
+      <c r="D25" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="E25" s="48" t="s">
+      <c r="E25" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="F25" s="48" t="s">
+      <c r="F25" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="36" t="s">
         <v>449</v>
       </c>
       <c r="H25" s="12" t="s">
@@ -6529,16 +6597,16 @@
       <c r="I25" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="J25" s="37" t="s">
         <v>710</v>
       </c>
-      <c r="K25" s="50" t="s">
+      <c r="K25" s="37" t="s">
         <v>711</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="L25" s="37" t="s">
         <v>908</v>
       </c>
-      <c r="M25" s="51" t="s">
+      <c r="M25" s="38" t="s">
         <v>909</v>
       </c>
       <c r="N25" s="10" t="s">
@@ -6553,15 +6621,15 @@
       <c r="Q25" s="7" t="s">
         <v>1152</v>
       </c>
-      <c r="R25" s="48" t="s">
+      <c r="R25" s="35" t="s">
         <v>1350</v>
       </c>
-      <c r="S25" s="49" t="s">
+      <c r="S25" s="36" t="s">
         <v>1351</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26" s="27">
         <v>21</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -6570,16 +6638,16 @@
       <c r="C26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="F26" s="48" t="s">
+      <c r="F26" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="G26" s="49" t="s">
+      <c r="G26" s="36" t="s">
         <v>451</v>
       </c>
       <c r="H26" s="12" t="s">
@@ -6588,16 +6656,16 @@
       <c r="I26" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="J26" s="37" t="s">
         <v>712</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="K26" s="37" t="s">
         <v>713</v>
       </c>
-      <c r="L26" s="50" t="s">
+      <c r="L26" s="37" t="s">
         <v>910</v>
       </c>
-      <c r="M26" s="51" t="s">
+      <c r="M26" s="38" t="s">
         <v>911</v>
       </c>
       <c r="N26" s="10" t="s">
@@ -6612,15 +6680,15 @@
       <c r="Q26" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="R26" s="48" t="s">
+      <c r="R26" s="35" t="s">
         <v>1352</v>
       </c>
-      <c r="S26" s="49" t="s">
+      <c r="S26" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" s="27">
         <v>22</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -6629,16 +6697,16 @@
       <c r="C27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D27" s="48" t="s">
+      <c r="D27" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="F27" s="48" t="s">
+      <c r="F27" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="G27" s="49" t="s">
+      <c r="G27" s="36" t="s">
         <v>453</v>
       </c>
       <c r="H27" s="12" t="s">
@@ -6647,16 +6715,16 @@
       <c r="I27" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="J27" s="50" t="s">
+      <c r="J27" s="37" t="s">
         <v>714</v>
       </c>
-      <c r="K27" s="50" t="s">
+      <c r="K27" s="37" t="s">
         <v>715</v>
       </c>
-      <c r="L27" s="50" t="s">
+      <c r="L27" s="37" t="s">
         <v>912</v>
       </c>
-      <c r="M27" s="51" t="s">
+      <c r="M27" s="38" t="s">
         <v>913</v>
       </c>
       <c r="N27" s="10" t="s">
@@ -6671,15 +6739,15 @@
       <c r="Q27" s="7" t="s">
         <v>1156</v>
       </c>
-      <c r="R27" s="48" t="s">
+      <c r="R27" s="35" t="s">
         <v>1353</v>
       </c>
-      <c r="S27" s="49" t="s">
+      <c r="S27" s="36" t="s">
         <v>1354</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" s="27">
         <v>23</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -6688,16 +6756,16 @@
       <c r="C28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="D28" s="35" t="s">
         <v>254</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="F28" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="G28" s="49" t="s">
+      <c r="G28" s="36" t="s">
         <v>455</v>
       </c>
       <c r="H28" s="12" t="s">
@@ -6706,16 +6774,16 @@
       <c r="I28" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="37" t="s">
         <v>716</v>
       </c>
-      <c r="K28" s="50" t="s">
+      <c r="K28" s="37" t="s">
         <v>717</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="37" t="s">
         <v>914</v>
       </c>
-      <c r="M28" s="51" t="s">
+      <c r="M28" s="38" t="s">
         <v>915</v>
       </c>
       <c r="N28" s="10" t="s">
@@ -6730,15 +6798,15 @@
       <c r="Q28" s="7" t="s">
         <v>1158</v>
       </c>
-      <c r="R28" s="48" t="s">
+      <c r="R28" s="35" t="s">
         <v>1355</v>
       </c>
-      <c r="S28" s="49" t="s">
+      <c r="S28" s="36" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A29" s="27">
         <v>24</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -6747,16 +6815,16 @@
       <c r="C29" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="D29" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="G29" s="49" t="s">
+      <c r="G29" s="36" t="s">
         <v>457</v>
       </c>
       <c r="H29" s="12" t="s">
@@ -6765,16 +6833,16 @@
       <c r="I29" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="J29" s="50" t="s">
+      <c r="J29" s="37" t="s">
         <v>718</v>
       </c>
-      <c r="K29" s="50" t="s">
+      <c r="K29" s="37" t="s">
         <v>719</v>
       </c>
-      <c r="L29" s="50" t="s">
+      <c r="L29" s="37" t="s">
         <v>916</v>
       </c>
-      <c r="M29" s="51" t="s">
+      <c r="M29" s="38" t="s">
         <v>917</v>
       </c>
       <c r="N29" s="10" t="s">
@@ -6789,15 +6857,15 @@
       <c r="Q29" s="7" t="s">
         <v>1160</v>
       </c>
-      <c r="R29" s="48" t="s">
+      <c r="R29" s="35" t="s">
         <v>1357</v>
       </c>
-      <c r="S29" s="49" t="s">
+      <c r="S29" s="36" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A30" s="27">
         <v>25</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -6806,16 +6874,16 @@
       <c r="C30" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="48" t="s">
+      <c r="D30" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="E30" s="48" t="s">
+      <c r="E30" s="35" t="s">
         <v>259</v>
       </c>
-      <c r="F30" s="48" t="s">
+      <c r="F30" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="G30" s="49" t="s">
+      <c r="G30" s="36" t="s">
         <v>459</v>
       </c>
       <c r="H30" s="12" t="s">
@@ -6824,16 +6892,16 @@
       <c r="I30" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="J30" s="50" t="s">
+      <c r="J30" s="37" t="s">
         <v>720</v>
       </c>
-      <c r="K30" s="50" t="s">
+      <c r="K30" s="37" t="s">
         <v>721</v>
       </c>
-      <c r="L30" s="50" t="s">
+      <c r="L30" s="37" t="s">
         <v>918</v>
       </c>
-      <c r="M30" s="51" t="s">
+      <c r="M30" s="38" t="s">
         <v>919</v>
       </c>
       <c r="N30" s="10" t="s">
@@ -6848,15 +6916,15 @@
       <c r="Q30" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="R30" s="48" t="s">
+      <c r="R30" s="35" t="s">
         <v>1359</v>
       </c>
-      <c r="S30" s="49" t="s">
+      <c r="S30" s="36" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" s="27">
         <v>26</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -6865,16 +6933,16 @@
       <c r="C31" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="48" t="s">
+      <c r="D31" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="48" t="s">
+      <c r="E31" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="F31" s="48" t="s">
+      <c r="F31" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="G31" s="49" t="s">
+      <c r="G31" s="36" t="s">
         <v>461</v>
       </c>
       <c r="H31" s="12" t="s">
@@ -6883,16 +6951,16 @@
       <c r="I31" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="37" t="s">
         <v>722</v>
       </c>
-      <c r="K31" s="50" t="s">
+      <c r="K31" s="37" t="s">
         <v>723</v>
       </c>
-      <c r="L31" s="50" t="s">
+      <c r="L31" s="37" t="s">
         <v>920</v>
       </c>
-      <c r="M31" s="51" t="s">
+      <c r="M31" s="38" t="s">
         <v>921</v>
       </c>
       <c r="N31" s="10" t="s">
@@ -6907,15 +6975,15 @@
       <c r="Q31" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="R31" s="48" t="s">
+      <c r="R31" s="35" t="s">
         <v>1361</v>
       </c>
-      <c r="S31" s="49" t="s">
+      <c r="S31" s="36" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32" s="27">
         <v>27</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -6924,16 +6992,16 @@
       <c r="C32" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="48" t="s">
+      <c r="D32" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="E32" s="48" t="s">
+      <c r="E32" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="F32" s="48" t="s">
+      <c r="F32" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="G32" s="49" t="s">
+      <c r="G32" s="36" t="s">
         <v>463</v>
       </c>
       <c r="H32" s="12" t="s">
@@ -6942,16 +7010,16 @@
       <c r="I32" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="J32" s="50" t="s">
+      <c r="J32" s="37" t="s">
         <v>724</v>
       </c>
-      <c r="K32" s="50" t="s">
+      <c r="K32" s="37" t="s">
         <v>725</v>
       </c>
-      <c r="L32" s="50" t="s">
+      <c r="L32" s="37" t="s">
         <v>922</v>
       </c>
-      <c r="M32" s="51" t="s">
+      <c r="M32" s="38" t="s">
         <v>923</v>
       </c>
       <c r="N32" s="10" t="s">
@@ -6966,15 +7034,15 @@
       <c r="Q32" s="7" t="s">
         <v>1166</v>
       </c>
-      <c r="R32" s="48" t="s">
+      <c r="R32" s="35" t="s">
         <v>1363</v>
       </c>
-      <c r="S32" s="49" t="s">
+      <c r="S32" s="36" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A33" s="27">
         <v>28</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -6983,16 +7051,16 @@
       <c r="C33" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="E33" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="G33" s="49" t="s">
+      <c r="G33" s="36" t="s">
         <v>465</v>
       </c>
       <c r="H33" s="12" t="s">
@@ -7001,16 +7069,16 @@
       <c r="I33" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="J33" s="50" t="s">
+      <c r="J33" s="37" t="s">
         <v>726</v>
       </c>
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="37" t="s">
         <v>727</v>
       </c>
-      <c r="L33" s="50" t="s">
+      <c r="L33" s="37" t="s">
         <v>924</v>
       </c>
-      <c r="M33" s="51" t="s">
+      <c r="M33" s="38" t="s">
         <v>925</v>
       </c>
       <c r="N33" s="10" t="s">
@@ -7025,15 +7093,15 @@
       <c r="Q33" s="7" t="s">
         <v>1168</v>
       </c>
-      <c r="R33" s="48" t="s">
+      <c r="R33" s="35" t="s">
         <v>1365</v>
       </c>
-      <c r="S33" s="49" t="s">
+      <c r="S33" s="36" t="s">
         <v>1366</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A34" s="27">
         <v>29</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -7042,16 +7110,16 @@
       <c r="C34" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="E34" s="48" t="s">
+      <c r="E34" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="F34" s="48" t="s">
+      <c r="F34" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="G34" s="49" t="s">
+      <c r="G34" s="36" t="s">
         <v>467</v>
       </c>
       <c r="H34" s="12" t="s">
@@ -7060,16 +7128,16 @@
       <c r="I34" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="J34" s="50" t="s">
+      <c r="J34" s="37" t="s">
         <v>728</v>
       </c>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="37" t="s">
         <v>729</v>
       </c>
-      <c r="L34" s="50" t="s">
+      <c r="L34" s="37" t="s">
         <v>926</v>
       </c>
-      <c r="M34" s="51" t="s">
+      <c r="M34" s="38" t="s">
         <v>927</v>
       </c>
       <c r="N34" s="10" t="s">
@@ -7084,15 +7152,15 @@
       <c r="Q34" s="7" t="s">
         <v>1170</v>
       </c>
-      <c r="R34" s="48" t="s">
+      <c r="R34" s="35" t="s">
         <v>1367</v>
       </c>
-      <c r="S34" s="49" t="s">
+      <c r="S34" s="36" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A35" s="27">
         <v>30</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -7101,16 +7169,16 @@
       <c r="C35" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D35" s="48" t="s">
+      <c r="D35" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="E35" s="48" t="s">
+      <c r="E35" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="F35" s="48" t="s">
+      <c r="F35" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="36" t="s">
         <v>469</v>
       </c>
       <c r="H35" s="12" t="s">
@@ -7119,16 +7187,16 @@
       <c r="I35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J35" s="50" t="s">
+      <c r="J35" s="37" t="s">
         <v>730</v>
       </c>
-      <c r="K35" s="50" t="s">
+      <c r="K35" s="37" t="s">
         <v>731</v>
       </c>
-      <c r="L35" s="50" t="s">
+      <c r="L35" s="37" t="s">
         <v>928</v>
       </c>
-      <c r="M35" s="51" t="s">
+      <c r="M35" s="38" t="s">
         <v>929</v>
       </c>
       <c r="N35" s="10" t="s">
@@ -7143,15 +7211,15 @@
       <c r="Q35" s="7" t="s">
         <v>1172</v>
       </c>
-      <c r="R35" s="48" t="s">
+      <c r="R35" s="35" t="s">
         <v>1369</v>
       </c>
-      <c r="S35" s="49" t="s">
+      <c r="S35" s="36" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A36" s="27">
         <v>31</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -7160,16 +7228,16 @@
       <c r="C36" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="48" t="s">
+      <c r="D36" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="E36" s="48" t="s">
+      <c r="E36" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F36" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="G36" s="49" t="s">
+      <c r="G36" s="36" t="s">
         <v>471</v>
       </c>
       <c r="H36" s="12" t="s">
@@ -7178,16 +7246,16 @@
       <c r="I36" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="J36" s="50" t="s">
+      <c r="J36" s="37" t="s">
         <v>732</v>
       </c>
-      <c r="K36" s="50" t="s">
+      <c r="K36" s="37" t="s">
         <v>733</v>
       </c>
-      <c r="L36" s="50" t="s">
+      <c r="L36" s="37" t="s">
         <v>930</v>
       </c>
-      <c r="M36" s="51" t="s">
+      <c r="M36" s="38" t="s">
         <v>931</v>
       </c>
       <c r="N36" s="10" t="s">
@@ -7202,15 +7270,15 @@
       <c r="Q36" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="R36" s="48" t="s">
+      <c r="R36" s="35" t="s">
         <v>1371</v>
       </c>
-      <c r="S36" s="49" t="s">
+      <c r="S36" s="36" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A37" s="27">
         <v>32</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -7219,16 +7287,16 @@
       <c r="C37" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="48" t="s">
+      <c r="D37" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="E37" s="48" t="s">
+      <c r="E37" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="F37" s="48" t="s">
+      <c r="F37" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="G37" s="49" t="s">
+      <c r="G37" s="36" t="s">
         <v>473</v>
       </c>
       <c r="H37" s="12" t="s">
@@ -7237,16 +7305,16 @@
       <c r="I37" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="J37" s="50" t="s">
+      <c r="J37" s="37" t="s">
         <v>734</v>
       </c>
-      <c r="K37" s="50" t="s">
+      <c r="K37" s="37" t="s">
         <v>735</v>
       </c>
-      <c r="L37" s="50" t="s">
+      <c r="L37" s="37" t="s">
         <v>932</v>
       </c>
-      <c r="M37" s="51" t="s">
+      <c r="M37" s="38" t="s">
         <v>933</v>
       </c>
       <c r="N37" s="10" t="s">
@@ -7261,15 +7329,15 @@
       <c r="Q37" s="7" t="s">
         <v>1176</v>
       </c>
-      <c r="R37" s="48" t="s">
+      <c r="R37" s="35" t="s">
         <v>1373</v>
       </c>
-      <c r="S37" s="49" t="s">
+      <c r="S37" s="36" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A38" s="27">
         <v>33</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -7278,16 +7346,16 @@
       <c r="C38" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="48" t="s">
+      <c r="D38" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="E38" s="48" t="s">
+      <c r="E38" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="F38" s="48" t="s">
+      <c r="F38" s="35" t="s">
         <v>474</v>
       </c>
-      <c r="G38" s="49" t="s">
+      <c r="G38" s="36" t="s">
         <v>475</v>
       </c>
       <c r="H38" s="12" t="s">
@@ -7296,16 +7364,16 @@
       <c r="I38" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="J38" s="50" t="s">
+      <c r="J38" s="37" t="s">
         <v>736</v>
       </c>
-      <c r="K38" s="50" t="s">
+      <c r="K38" s="37" t="s">
         <v>737</v>
       </c>
-      <c r="L38" s="50" t="s">
+      <c r="L38" s="37" t="s">
         <v>934</v>
       </c>
-      <c r="M38" s="51" t="s">
+      <c r="M38" s="38" t="s">
         <v>935</v>
       </c>
       <c r="N38" s="10" t="s">
@@ -7320,15 +7388,15 @@
       <c r="Q38" s="7" t="s">
         <v>1178</v>
       </c>
-      <c r="R38" s="48" t="s">
+      <c r="R38" s="35" t="s">
         <v>1375</v>
       </c>
-      <c r="S38" s="49" t="s">
+      <c r="S38" s="36" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A39" s="27">
         <v>34</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -7337,16 +7405,16 @@
       <c r="C39" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="E39" s="48" t="s">
+      <c r="E39" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="F39" s="48" t="s">
+      <c r="F39" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="G39" s="49" t="s">
+      <c r="G39" s="36" t="s">
         <v>477</v>
       </c>
       <c r="H39" s="12" t="s">
@@ -7355,16 +7423,16 @@
       <c r="I39" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="J39" s="50" t="s">
+      <c r="J39" s="37" t="s">
         <v>738</v>
       </c>
-      <c r="K39" s="50" t="s">
+      <c r="K39" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="L39" s="50" t="s">
+      <c r="L39" s="37" t="s">
         <v>936</v>
       </c>
-      <c r="M39" s="51" t="s">
+      <c r="M39" s="38" t="s">
         <v>937</v>
       </c>
       <c r="N39" s="10" t="s">
@@ -7379,15 +7447,15 @@
       <c r="Q39" s="7" t="s">
         <v>1180</v>
       </c>
-      <c r="R39" s="48" t="s">
+      <c r="R39" s="35" t="s">
         <v>1377</v>
       </c>
-      <c r="S39" s="49" t="s">
+      <c r="S39" s="36" t="s">
         <v>1378</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A40" s="27">
         <v>35</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -7396,16 +7464,16 @@
       <c r="C40" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="35" t="s">
         <v>279</v>
       </c>
-      <c r="F40" s="48" t="s">
+      <c r="F40" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="G40" s="49" t="s">
+      <c r="G40" s="36" t="s">
         <v>479</v>
       </c>
       <c r="H40" s="12" t="s">
@@ -7414,16 +7482,16 @@
       <c r="I40" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="J40" s="50" t="s">
+      <c r="J40" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="K40" s="50" t="s">
+      <c r="K40" s="37" t="s">
         <v>741</v>
       </c>
-      <c r="L40" s="50" t="s">
+      <c r="L40" s="37" t="s">
         <v>938</v>
       </c>
-      <c r="M40" s="51" t="s">
+      <c r="M40" s="38" t="s">
         <v>939</v>
       </c>
       <c r="N40" s="10" t="s">
@@ -7438,15 +7506,15 @@
       <c r="Q40" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="R40" s="48" t="s">
+      <c r="R40" s="35" t="s">
         <v>1379</v>
       </c>
-      <c r="S40" s="49" t="s">
+      <c r="S40" s="36" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="34">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A41" s="27">
         <v>36</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -7455,16 +7523,16 @@
       <c r="C41" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="E41" s="48" t="s">
+      <c r="E41" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="F41" s="48" t="s">
+      <c r="F41" s="35" t="s">
         <v>480</v>
       </c>
-      <c r="G41" s="49" t="s">
+      <c r="G41" s="36" t="s">
         <v>481</v>
       </c>
       <c r="H41" s="12" t="s">
@@ -7473,16 +7541,16 @@
       <c r="I41" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="J41" s="50" t="s">
+      <c r="J41" s="37" t="s">
         <v>742</v>
       </c>
-      <c r="K41" s="50" t="s">
+      <c r="K41" s="37" t="s">
         <v>743</v>
       </c>
-      <c r="L41" s="50" t="s">
+      <c r="L41" s="37" t="s">
         <v>940</v>
       </c>
-      <c r="M41" s="51" t="s">
+      <c r="M41" s="38" t="s">
         <v>941</v>
       </c>
       <c r="N41" s="10" t="s">
@@ -7491,21 +7559,21 @@
       <c r="O41" s="6" t="s">
         <v>1046</v>
       </c>
-      <c r="P41" s="48" t="s">
+      <c r="P41" s="35" t="s">
         <v>1183</v>
       </c>
-      <c r="Q41" s="48" t="s">
+      <c r="Q41" s="35" t="s">
         <v>1184</v>
       </c>
-      <c r="R41" s="48" t="s">
+      <c r="R41" s="35" t="s">
         <v>1381</v>
       </c>
-      <c r="S41" s="49" t="s">
+      <c r="S41" s="36" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A42" s="27">
         <v>37</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -7514,16 +7582,16 @@
       <c r="C42" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="E42" s="48" t="s">
+      <c r="E42" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="F42" s="48" t="s">
+      <c r="F42" s="35" t="s">
         <v>482</v>
       </c>
-      <c r="G42" s="49" t="s">
+      <c r="G42" s="36" t="s">
         <v>483</v>
       </c>
       <c r="H42" s="12" t="s">
@@ -7532,16 +7600,16 @@
       <c r="I42" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="J42" s="50" t="s">
+      <c r="J42" s="37" t="s">
         <v>744</v>
       </c>
-      <c r="K42" s="50" t="s">
+      <c r="K42" s="37" t="s">
         <v>745</v>
       </c>
-      <c r="L42" s="50" t="s">
+      <c r="L42" s="37" t="s">
         <v>942</v>
       </c>
-      <c r="M42" s="51" t="s">
+      <c r="M42" s="38" t="s">
         <v>943</v>
       </c>
       <c r="N42" s="10" t="s">
@@ -7550,21 +7618,21 @@
       <c r="O42" s="6" t="s">
         <v>1048</v>
       </c>
-      <c r="P42" s="48" t="s">
+      <c r="P42" s="35" t="s">
         <v>1185</v>
       </c>
-      <c r="Q42" s="48" t="s">
+      <c r="Q42" s="35" t="s">
         <v>1186</v>
       </c>
-      <c r="R42" s="48" t="s">
+      <c r="R42" s="35" t="s">
         <v>1383</v>
       </c>
-      <c r="S42" s="49" t="s">
+      <c r="S42" s="36" t="s">
         <v>1384</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A43" s="27">
         <v>38</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -7573,10 +7641,10 @@
       <c r="C43" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="E43" s="48" t="s">
+      <c r="E43" s="35" t="s">
         <v>285</v>
       </c>
       <c r="F43" s="7"/>
@@ -7587,16 +7655,16 @@
       <c r="I43" s="13" t="s">
         <v>557</v>
       </c>
-      <c r="J43" s="50" t="s">
+      <c r="J43" s="37" t="s">
         <v>746</v>
       </c>
-      <c r="K43" s="50" t="s">
+      <c r="K43" s="37" t="s">
         <v>747</v>
       </c>
-      <c r="L43" s="50" t="s">
+      <c r="L43" s="37" t="s">
         <v>944</v>
       </c>
-      <c r="M43" s="51" t="s">
+      <c r="M43" s="38" t="s">
         <v>945</v>
       </c>
       <c r="N43" s="10" t="s">
@@ -7605,21 +7673,21 @@
       <c r="O43" s="6" t="s">
         <v>1050</v>
       </c>
-      <c r="P43" s="48" t="s">
+      <c r="P43" s="35" t="s">
         <v>1187</v>
       </c>
-      <c r="Q43" s="48" t="s">
+      <c r="Q43" s="35" t="s">
         <v>1188</v>
       </c>
-      <c r="R43" s="48" t="s">
+      <c r="R43" s="35" t="s">
         <v>1385</v>
       </c>
-      <c r="S43" s="49" t="s">
+      <c r="S43" s="36" t="s">
         <v>1386</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A44" s="27">
         <v>39</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -7628,10 +7696,10 @@
       <c r="C44" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="35" t="s">
         <v>287</v>
       </c>
       <c r="F44" s="7"/>
@@ -7642,16 +7710,16 @@
       <c r="I44" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="J44" s="50" t="s">
+      <c r="J44" s="37" t="s">
         <v>748</v>
       </c>
-      <c r="K44" s="50" t="s">
+      <c r="K44" s="37" t="s">
         <v>749</v>
       </c>
-      <c r="L44" s="50" t="s">
+      <c r="L44" s="37" t="s">
         <v>946</v>
       </c>
-      <c r="M44" s="51" t="s">
+      <c r="M44" s="38" t="s">
         <v>947</v>
       </c>
       <c r="N44" s="10" t="s">
@@ -7660,21 +7728,21 @@
       <c r="O44" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="P44" s="48" t="s">
+      <c r="P44" s="35" t="s">
         <v>1189</v>
       </c>
-      <c r="Q44" s="48" t="s">
+      <c r="Q44" s="35" t="s">
         <v>1190</v>
       </c>
-      <c r="R44" s="48" t="s">
+      <c r="R44" s="35" t="s">
         <v>1387</v>
       </c>
-      <c r="S44" s="49" t="s">
+      <c r="S44" s="36" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="34">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A45" s="27">
         <v>40</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -7683,10 +7751,10 @@
       <c r="C45" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="E45" s="48" t="s">
+      <c r="E45" s="35" t="s">
         <v>289</v>
       </c>
       <c r="F45" s="7"/>
@@ -7697,16 +7765,16 @@
       <c r="I45" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="J45" s="50" t="s">
+      <c r="J45" s="37" t="s">
         <v>750</v>
       </c>
-      <c r="K45" s="50" t="s">
+      <c r="K45" s="37" t="s">
         <v>751</v>
       </c>
-      <c r="L45" s="50" t="s">
+      <c r="L45" s="37" t="s">
         <v>948</v>
       </c>
-      <c r="M45" s="51" t="s">
+      <c r="M45" s="38" t="s">
         <v>949</v>
       </c>
       <c r="N45" s="10" t="s">
@@ -7715,21 +7783,21 @@
       <c r="O45" s="6" t="s">
         <v>1054</v>
       </c>
-      <c r="P45" s="48" t="s">
+      <c r="P45" s="35" t="s">
         <v>1191</v>
       </c>
-      <c r="Q45" s="48" t="s">
+      <c r="Q45" s="35" t="s">
         <v>1192</v>
       </c>
-      <c r="R45" s="48" t="s">
+      <c r="R45" s="35" t="s">
         <v>1389</v>
       </c>
-      <c r="S45" s="49" t="s">
+      <c r="S45" s="36" t="s">
         <v>1390</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A46" s="27">
         <v>41</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -7738,10 +7806,10 @@
       <c r="C46" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="E46" s="48" t="s">
+      <c r="E46" s="35" t="s">
         <v>291</v>
       </c>
       <c r="F46" s="7"/>
@@ -7752,16 +7820,16 @@
       <c r="I46" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="J46" s="50" t="s">
+      <c r="J46" s="37" t="s">
         <v>752</v>
       </c>
-      <c r="K46" s="50" t="s">
+      <c r="K46" s="37" t="s">
         <v>753</v>
       </c>
-      <c r="L46" s="50" t="s">
+      <c r="L46" s="37" t="s">
         <v>950</v>
       </c>
-      <c r="M46" s="51" t="s">
+      <c r="M46" s="38" t="s">
         <v>951</v>
       </c>
       <c r="N46" s="10" t="s">
@@ -7770,21 +7838,21 @@
       <c r="O46" s="6" t="s">
         <v>1056</v>
       </c>
-      <c r="P46" s="48" t="s">
+      <c r="P46" s="35" t="s">
         <v>1193</v>
       </c>
-      <c r="Q46" s="48" t="s">
+      <c r="Q46" s="35" t="s">
         <v>1194</v>
       </c>
-      <c r="R46" s="48" t="s">
+      <c r="R46" s="35" t="s">
         <v>1391</v>
       </c>
-      <c r="S46" s="49" t="s">
+      <c r="S46" s="36" t="s">
         <v>1392</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A47" s="27">
         <v>42</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -7793,10 +7861,10 @@
       <c r="C47" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="48" t="s">
+      <c r="D47" s="35" t="s">
         <v>292</v>
       </c>
-      <c r="E47" s="48" t="s">
+      <c r="E47" s="35" t="s">
         <v>293</v>
       </c>
       <c r="F47" s="7"/>
@@ -7807,16 +7875,16 @@
       <c r="I47" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="J47" s="50" t="s">
+      <c r="J47" s="37" t="s">
         <v>754</v>
       </c>
-      <c r="K47" s="50" t="s">
+      <c r="K47" s="37" t="s">
         <v>755</v>
       </c>
-      <c r="L47" s="50" t="s">
+      <c r="L47" s="37" t="s">
         <v>952</v>
       </c>
-      <c r="M47" s="51" t="s">
+      <c r="M47" s="38" t="s">
         <v>953</v>
       </c>
       <c r="N47" s="10" t="s">
@@ -7825,21 +7893,21 @@
       <c r="O47" s="6" t="s">
         <v>1058</v>
       </c>
-      <c r="P47" s="48" t="s">
+      <c r="P47" s="35" t="s">
         <v>1195</v>
       </c>
-      <c r="Q47" s="48" t="s">
+      <c r="Q47" s="35" t="s">
         <v>1196</v>
       </c>
-      <c r="R47" s="48" t="s">
+      <c r="R47" s="35" t="s">
         <v>1393</v>
       </c>
-      <c r="S47" s="49" t="s">
+      <c r="S47" s="36" t="s">
         <v>1394</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A48" s="27">
         <v>43</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -7848,10 +7916,10 @@
       <c r="C48" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="35" t="s">
         <v>295</v>
       </c>
       <c r="F48" s="7"/>
@@ -7862,16 +7930,16 @@
       <c r="I48" s="13" t="s">
         <v>567</v>
       </c>
-      <c r="J48" s="50" t="s">
+      <c r="J48" s="37" t="s">
         <v>756</v>
       </c>
-      <c r="K48" s="50" t="s">
+      <c r="K48" s="37" t="s">
         <v>757</v>
       </c>
-      <c r="L48" s="50" t="s">
+      <c r="L48" s="37" t="s">
         <v>954</v>
       </c>
-      <c r="M48" s="51" t="s">
+      <c r="M48" s="38" t="s">
         <v>955</v>
       </c>
       <c r="N48" s="10" t="s">
@@ -7880,21 +7948,21 @@
       <c r="O48" s="6" t="s">
         <v>1060</v>
       </c>
-      <c r="P48" s="48" t="s">
+      <c r="P48" s="35" t="s">
         <v>1197</v>
       </c>
-      <c r="Q48" s="48" t="s">
+      <c r="Q48" s="35" t="s">
         <v>1198</v>
       </c>
-      <c r="R48" s="48" t="s">
+      <c r="R48" s="35" t="s">
         <v>1395</v>
       </c>
-      <c r="S48" s="49" t="s">
+      <c r="S48" s="36" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A49" s="27">
         <v>44</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -7903,10 +7971,10 @@
       <c r="C49" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="48" t="s">
+      <c r="D49" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="E49" s="48" t="s">
+      <c r="E49" s="35" t="s">
         <v>297</v>
       </c>
       <c r="F49" s="7"/>
@@ -7917,16 +7985,16 @@
       <c r="I49" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="J49" s="50" t="s">
+      <c r="J49" s="37" t="s">
         <v>758</v>
       </c>
-      <c r="K49" s="50" t="s">
+      <c r="K49" s="37" t="s">
         <v>759</v>
       </c>
-      <c r="L49" s="50" t="s">
+      <c r="L49" s="37" t="s">
         <v>956</v>
       </c>
-      <c r="M49" s="51" t="s">
+      <c r="M49" s="38" t="s">
         <v>957</v>
       </c>
       <c r="N49" s="10" t="s">
@@ -7935,21 +8003,21 @@
       <c r="O49" s="6" t="s">
         <v>1062</v>
       </c>
-      <c r="P49" s="48" t="s">
+      <c r="P49" s="35" t="s">
         <v>1199</v>
       </c>
-      <c r="Q49" s="48" t="s">
+      <c r="Q49" s="35" t="s">
         <v>1200</v>
       </c>
-      <c r="R49" s="48" t="s">
+      <c r="R49" s="35" t="s">
         <v>1397</v>
       </c>
-      <c r="S49" s="49" t="s">
+      <c r="S49" s="36" t="s">
         <v>1398</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A50" s="27">
         <v>45</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -7958,10 +8026,10 @@
       <c r="C50" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="35" t="s">
         <v>299</v>
       </c>
       <c r="F50" s="7"/>
@@ -7972,16 +8040,16 @@
       <c r="I50" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="J50" s="50" t="s">
+      <c r="J50" s="37" t="s">
         <v>760</v>
       </c>
-      <c r="K50" s="50" t="s">
+      <c r="K50" s="37" t="s">
         <v>761</v>
       </c>
-      <c r="L50" s="50" t="s">
+      <c r="L50" s="37" t="s">
         <v>958</v>
       </c>
-      <c r="M50" s="51" t="s">
+      <c r="M50" s="38" t="s">
         <v>959</v>
       </c>
       <c r="N50" s="10" t="s">
@@ -7990,21 +8058,21 @@
       <c r="O50" s="6" t="s">
         <v>1064</v>
       </c>
-      <c r="P50" s="48" t="s">
+      <c r="P50" s="35" t="s">
         <v>1201</v>
       </c>
-      <c r="Q50" s="48" t="s">
+      <c r="Q50" s="35" t="s">
         <v>1202</v>
       </c>
-      <c r="R50" s="48" t="s">
+      <c r="R50" s="35" t="s">
         <v>1399</v>
       </c>
-      <c r="S50" s="49" t="s">
+      <c r="S50" s="36" t="s">
         <v>1400</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A51" s="27">
         <v>46</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -8013,10 +8081,10 @@
       <c r="C51" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D51" s="48" t="s">
+      <c r="D51" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="E51" s="48" t="s">
+      <c r="E51" s="35" t="s">
         <v>301</v>
       </c>
       <c r="F51" s="7"/>
@@ -8027,16 +8095,16 @@
       <c r="I51" s="13" t="s">
         <v>573</v>
       </c>
-      <c r="J51" s="50" t="s">
+      <c r="J51" s="37" t="s">
         <v>762</v>
       </c>
-      <c r="K51" s="50" t="s">
+      <c r="K51" s="37" t="s">
         <v>763</v>
       </c>
-      <c r="L51" s="50" t="s">
+      <c r="L51" s="37" t="s">
         <v>960</v>
       </c>
-      <c r="M51" s="51" t="s">
+      <c r="M51" s="38" t="s">
         <v>961</v>
       </c>
       <c r="N51" s="10" t="s">
@@ -8045,21 +8113,21 @@
       <c r="O51" s="6" t="s">
         <v>1066</v>
       </c>
-      <c r="P51" s="48" t="s">
+      <c r="P51" s="35" t="s">
         <v>1203</v>
       </c>
-      <c r="Q51" s="48" t="s">
+      <c r="Q51" s="35" t="s">
         <v>1204</v>
       </c>
-      <c r="R51" s="48" t="s">
+      <c r="R51" s="35" t="s">
         <v>1401</v>
       </c>
-      <c r="S51" s="49" t="s">
+      <c r="S51" s="36" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="34">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A52" s="27">
         <v>47</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -8068,10 +8136,10 @@
       <c r="C52" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="48" t="s">
+      <c r="D52" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="E52" s="48" t="s">
+      <c r="E52" s="35" t="s">
         <v>303</v>
       </c>
       <c r="F52" s="7"/>
@@ -8082,16 +8150,16 @@
       <c r="I52" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="J52" s="50" t="s">
+      <c r="J52" s="37" t="s">
         <v>764</v>
       </c>
-      <c r="K52" s="50" t="s">
+      <c r="K52" s="37" t="s">
         <v>765</v>
       </c>
-      <c r="L52" s="50" t="s">
+      <c r="L52" s="37" t="s">
         <v>962</v>
       </c>
-      <c r="M52" s="51" t="s">
+      <c r="M52" s="38" t="s">
         <v>963</v>
       </c>
       <c r="N52" s="10" t="s">
@@ -8100,21 +8168,21 @@
       <c r="O52" s="6" t="s">
         <v>1068</v>
       </c>
-      <c r="P52" s="48" t="s">
+      <c r="P52" s="35" t="s">
         <v>1205</v>
       </c>
-      <c r="Q52" s="48" t="s">
+      <c r="Q52" s="35" t="s">
         <v>1206</v>
       </c>
-      <c r="R52" s="48" t="s">
+      <c r="R52" s="35" t="s">
         <v>1403</v>
       </c>
-      <c r="S52" s="49" t="s">
+      <c r="S52" s="36" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="34">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A53" s="27">
         <v>48</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -8123,10 +8191,10 @@
       <c r="C53" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D53" s="48" t="s">
+      <c r="D53" s="35" t="s">
         <v>304</v>
       </c>
-      <c r="E53" s="48" t="s">
+      <c r="E53" s="35" t="s">
         <v>305</v>
       </c>
       <c r="F53" s="7"/>
@@ -8137,16 +8205,16 @@
       <c r="I53" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="J53" s="50" t="s">
+      <c r="J53" s="37" t="s">
         <v>766</v>
       </c>
-      <c r="K53" s="50" t="s">
+      <c r="K53" s="37" t="s">
         <v>767</v>
       </c>
-      <c r="L53" s="50" t="s">
+      <c r="L53" s="37" t="s">
         <v>964</v>
       </c>
-      <c r="M53" s="51" t="s">
+      <c r="M53" s="38" t="s">
         <v>965</v>
       </c>
       <c r="N53" s="10" t="s">
@@ -8155,21 +8223,21 @@
       <c r="O53" s="6" t="s">
         <v>1070</v>
       </c>
-      <c r="P53" s="48" t="s">
+      <c r="P53" s="35" t="s">
         <v>1207</v>
       </c>
-      <c r="Q53" s="48" t="s">
+      <c r="Q53" s="35" t="s">
         <v>1208</v>
       </c>
-      <c r="R53" s="48" t="s">
+      <c r="R53" s="35" t="s">
         <v>1405</v>
       </c>
-      <c r="S53" s="49" t="s">
+      <c r="S53" s="36" t="s">
         <v>1406</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A54" s="27">
         <v>49</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -8178,10 +8246,10 @@
       <c r="C54" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="48" t="s">
+      <c r="D54" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="E54" s="48" t="s">
+      <c r="E54" s="35" t="s">
         <v>307</v>
       </c>
       <c r="F54" s="7"/>
@@ -8192,16 +8260,16 @@
       <c r="I54" s="13" t="s">
         <v>579</v>
       </c>
-      <c r="J54" s="50" t="s">
+      <c r="J54" s="37" t="s">
         <v>768</v>
       </c>
-      <c r="K54" s="50" t="s">
+      <c r="K54" s="37" t="s">
         <v>769</v>
       </c>
-      <c r="L54" s="50" t="s">
+      <c r="L54" s="37" t="s">
         <v>966</v>
       </c>
-      <c r="M54" s="51" t="s">
+      <c r="M54" s="38" t="s">
         <v>967</v>
       </c>
       <c r="N54" s="10" t="s">
@@ -8210,21 +8278,21 @@
       <c r="O54" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="P54" s="48" t="s">
+      <c r="P54" s="35" t="s">
         <v>1209</v>
       </c>
-      <c r="Q54" s="48" t="s">
+      <c r="Q54" s="35" t="s">
         <v>1210</v>
       </c>
-      <c r="R54" s="48" t="s">
+      <c r="R54" s="35" t="s">
         <v>1407</v>
       </c>
-      <c r="S54" s="49" t="s">
+      <c r="S54" s="36" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A55" s="27">
         <v>50</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -8233,10 +8301,10 @@
       <c r="C55" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="48" t="s">
+      <c r="D55" s="35" t="s">
         <v>308</v>
       </c>
-      <c r="E55" s="48" t="s">
+      <c r="E55" s="35" t="s">
         <v>309</v>
       </c>
       <c r="F55" s="7"/>
@@ -8247,16 +8315,16 @@
       <c r="I55" s="13" t="s">
         <v>581</v>
       </c>
-      <c r="J55" s="50" t="s">
+      <c r="J55" s="37" t="s">
         <v>770</v>
       </c>
-      <c r="K55" s="50" t="s">
+      <c r="K55" s="37" t="s">
         <v>771</v>
       </c>
-      <c r="L55" s="50" t="s">
+      <c r="L55" s="37" t="s">
         <v>968</v>
       </c>
-      <c r="M55" s="51" t="s">
+      <c r="M55" s="38" t="s">
         <v>969</v>
       </c>
       <c r="N55" s="10" t="s">
@@ -8265,21 +8333,21 @@
       <c r="O55" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="P55" s="48" t="s">
+      <c r="P55" s="35" t="s">
         <v>1211</v>
       </c>
-      <c r="Q55" s="48" t="s">
+      <c r="Q55" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="R55" s="48" t="s">
+      <c r="R55" s="35" t="s">
         <v>1409</v>
       </c>
-      <c r="S55" s="49" t="s">
+      <c r="S55" s="36" t="s">
         <v>1410</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A56" s="27">
         <v>51</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -8288,10 +8356,10 @@
       <c r="C56" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="48" t="s">
+      <c r="D56" s="35" t="s">
         <v>310</v>
       </c>
-      <c r="E56" s="48" t="s">
+      <c r="E56" s="35" t="s">
         <v>311</v>
       </c>
       <c r="F56" s="7"/>
@@ -8302,16 +8370,16 @@
       <c r="I56" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="J56" s="50" t="s">
+      <c r="J56" s="37" t="s">
         <v>772</v>
       </c>
-      <c r="K56" s="50" t="s">
+      <c r="K56" s="37" t="s">
         <v>773</v>
       </c>
-      <c r="L56" s="50" t="s">
+      <c r="L56" s="37" t="s">
         <v>970</v>
       </c>
-      <c r="M56" s="51" t="s">
+      <c r="M56" s="38" t="s">
         <v>971</v>
       </c>
       <c r="N56" s="10" t="s">
@@ -8320,21 +8388,21 @@
       <c r="O56" s="6" t="s">
         <v>1076</v>
       </c>
-      <c r="P56" s="48" t="s">
+      <c r="P56" s="35" t="s">
         <v>1212</v>
       </c>
-      <c r="Q56" s="48" t="s">
+      <c r="Q56" s="35" t="s">
         <v>1213</v>
       </c>
-      <c r="R56" s="48" t="s">
+      <c r="R56" s="35" t="s">
         <v>1411</v>
       </c>
-      <c r="S56" s="49" t="s">
+      <c r="S56" s="36" t="s">
         <v>1412</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="34">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A57" s="27">
         <v>52</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -8343,10 +8411,10 @@
       <c r="C57" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="35" t="s">
         <v>312</v>
       </c>
-      <c r="E57" s="48" t="s">
+      <c r="E57" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F57" s="7"/>
@@ -8357,16 +8425,16 @@
       <c r="I57" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="J57" s="50" t="s">
+      <c r="J57" s="37" t="s">
         <v>774</v>
       </c>
-      <c r="K57" s="50" t="s">
+      <c r="K57" s="37" t="s">
         <v>775</v>
       </c>
-      <c r="L57" s="50" t="s">
+      <c r="L57" s="37" t="s">
         <v>972</v>
       </c>
-      <c r="M57" s="51" t="s">
+      <c r="M57" s="38" t="s">
         <v>973</v>
       </c>
       <c r="N57" s="10" t="s">
@@ -8375,21 +8443,21 @@
       <c r="O57" s="6" t="s">
         <v>1078</v>
       </c>
-      <c r="P57" s="48" t="s">
+      <c r="P57" s="35" t="s">
         <v>1214</v>
       </c>
-      <c r="Q57" s="48" t="s">
+      <c r="Q57" s="35" t="s">
         <v>1215</v>
       </c>
-      <c r="R57" s="48" t="s">
+      <c r="R57" s="35" t="s">
         <v>1413</v>
       </c>
-      <c r="S57" s="49" t="s">
+      <c r="S57" s="36" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A58" s="27">
         <v>53</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -8398,10 +8466,10 @@
       <c r="C58" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D58" s="48" t="s">
+      <c r="D58" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="E58" s="48" t="s">
+      <c r="E58" s="35" t="s">
         <v>315</v>
       </c>
       <c r="F58" s="7"/>
@@ -8412,16 +8480,16 @@
       <c r="I58" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="J58" s="50" t="s">
+      <c r="J58" s="37" t="s">
         <v>776</v>
       </c>
-      <c r="K58" s="50" t="s">
+      <c r="K58" s="37" t="s">
         <v>777</v>
       </c>
-      <c r="L58" s="50" t="s">
+      <c r="L58" s="37" t="s">
         <v>974</v>
       </c>
-      <c r="M58" s="51" t="s">
+      <c r="M58" s="38" t="s">
         <v>975</v>
       </c>
       <c r="N58" s="10" t="s">
@@ -8430,21 +8498,21 @@
       <c r="O58" s="6" t="s">
         <v>1080</v>
       </c>
-      <c r="P58" s="48" t="s">
+      <c r="P58" s="35" t="s">
         <v>1216</v>
       </c>
-      <c r="Q58" s="48" t="s">
+      <c r="Q58" s="35" t="s">
         <v>1217</v>
       </c>
-      <c r="R58" s="48" t="s">
+      <c r="R58" s="35" t="s">
         <v>1415</v>
       </c>
-      <c r="S58" s="49" t="s">
+      <c r="S58" s="36" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A59" s="27">
         <v>54</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -8453,10 +8521,10 @@
       <c r="C59" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D59" s="48" t="s">
+      <c r="D59" s="35" t="s">
         <v>316</v>
       </c>
-      <c r="E59" s="48" t="s">
+      <c r="E59" s="35" t="s">
         <v>317</v>
       </c>
       <c r="F59" s="7"/>
@@ -8467,10 +8535,10 @@
       <c r="I59" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="J59" s="50" t="s">
+      <c r="J59" s="37" t="s">
         <v>778</v>
       </c>
-      <c r="K59" s="50" t="s">
+      <c r="K59" s="37" t="s">
         <v>779</v>
       </c>
       <c r="L59" s="13"/>
@@ -8481,21 +8549,21 @@
       <c r="O59" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="P59" s="48" t="s">
+      <c r="P59" s="35" t="s">
         <v>1218</v>
       </c>
-      <c r="Q59" s="48" t="s">
+      <c r="Q59" s="35" t="s">
         <v>1219</v>
       </c>
-      <c r="R59" s="48" t="s">
+      <c r="R59" s="35" t="s">
         <v>1417</v>
       </c>
-      <c r="S59" s="49" t="s">
+      <c r="S59" s="36" t="s">
         <v>1418</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="34">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A60" s="27">
         <v>55</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -8504,10 +8572,10 @@
       <c r="C60" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D60" s="48" t="s">
+      <c r="D60" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="E60" s="48" t="s">
+      <c r="E60" s="35" t="s">
         <v>319</v>
       </c>
       <c r="F60" s="7"/>
@@ -8518,10 +8586,10 @@
       <c r="I60" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="J60" s="50" t="s">
+      <c r="J60" s="37" t="s">
         <v>780</v>
       </c>
-      <c r="K60" s="50" t="s">
+      <c r="K60" s="37" t="s">
         <v>781</v>
       </c>
       <c r="L60" s="13"/>
@@ -8532,21 +8600,21 @@
       <c r="O60" s="6" t="s">
         <v>1084</v>
       </c>
-      <c r="P60" s="48" t="s">
+      <c r="P60" s="35" t="s">
         <v>1220</v>
       </c>
-      <c r="Q60" s="48" t="s">
+      <c r="Q60" s="35" t="s">
         <v>1221</v>
       </c>
-      <c r="R60" s="48" t="s">
+      <c r="R60" s="35" t="s">
         <v>1419</v>
       </c>
-      <c r="S60" s="49" t="s">
+      <c r="S60" s="36" t="s">
         <v>1420</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="34">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A61" s="27">
         <v>56</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -8555,10 +8623,10 @@
       <c r="C61" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D61" s="48" t="s">
+      <c r="D61" s="35" t="s">
         <v>320</v>
       </c>
-      <c r="E61" s="48" t="s">
+      <c r="E61" s="35" t="s">
         <v>321</v>
       </c>
       <c r="F61" s="7"/>
@@ -8569,10 +8637,10 @@
       <c r="I61" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="J61" s="50" t="s">
+      <c r="J61" s="37" t="s">
         <v>782</v>
       </c>
-      <c r="K61" s="50" t="s">
+      <c r="K61" s="37" t="s">
         <v>783</v>
       </c>
       <c r="L61" s="13"/>
@@ -8583,21 +8651,21 @@
       <c r="O61" s="6" t="s">
         <v>1086</v>
       </c>
-      <c r="P61" s="48" t="s">
+      <c r="P61" s="35" t="s">
         <v>1222</v>
       </c>
-      <c r="Q61" s="48" t="s">
+      <c r="Q61" s="35" t="s">
         <v>1223</v>
       </c>
-      <c r="R61" s="48" t="s">
+      <c r="R61" s="35" t="s">
         <v>1421</v>
       </c>
-      <c r="S61" s="49" t="s">
+      <c r="S61" s="36" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="34">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A62" s="27">
         <v>57</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -8606,10 +8674,10 @@
       <c r="C62" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D62" s="48" t="s">
+      <c r="D62" s="35" t="s">
         <v>322</v>
       </c>
-      <c r="E62" s="48" t="s">
+      <c r="E62" s="35" t="s">
         <v>323</v>
       </c>
       <c r="F62" s="7"/>
@@ -8620,10 +8688,10 @@
       <c r="I62" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="J62" s="50" t="s">
+      <c r="J62" s="37" t="s">
         <v>784</v>
       </c>
-      <c r="K62" s="50" t="s">
+      <c r="K62" s="37" t="s">
         <v>785</v>
       </c>
       <c r="L62" s="13"/>
@@ -8634,21 +8702,21 @@
       <c r="O62" s="6" t="s">
         <v>1088</v>
       </c>
-      <c r="P62" s="48" t="s">
+      <c r="P62" s="35" t="s">
         <v>1224</v>
       </c>
-      <c r="Q62" s="48" t="s">
+      <c r="Q62" s="35" t="s">
         <v>1225</v>
       </c>
-      <c r="R62" s="48" t="s">
+      <c r="R62" s="35" t="s">
         <v>1423</v>
       </c>
-      <c r="S62" s="49" t="s">
+      <c r="S62" s="36" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="34">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A63" s="27">
         <v>58</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -8657,10 +8725,10 @@
       <c r="C63" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D63" s="48" t="s">
+      <c r="D63" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="E63" s="48" t="s">
+      <c r="E63" s="35" t="s">
         <v>325</v>
       </c>
       <c r="F63" s="7"/>
@@ -8671,10 +8739,10 @@
       <c r="I63" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="J63" s="50" t="s">
+      <c r="J63" s="37" t="s">
         <v>786</v>
       </c>
-      <c r="K63" s="50" t="s">
+      <c r="K63" s="37" t="s">
         <v>787</v>
       </c>
       <c r="L63" s="13"/>
@@ -8685,21 +8753,21 @@
       <c r="O63" s="6" t="s">
         <v>1090</v>
       </c>
-      <c r="P63" s="48" t="s">
+      <c r="P63" s="35" t="s">
         <v>1226</v>
       </c>
-      <c r="Q63" s="48" t="s">
+      <c r="Q63" s="35" t="s">
         <v>1227</v>
       </c>
-      <c r="R63" s="48" t="s">
+      <c r="R63" s="35" t="s">
         <v>1425</v>
       </c>
-      <c r="S63" s="49" t="s">
+      <c r="S63" s="36" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A64" s="27">
         <v>59</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -8708,10 +8776,10 @@
       <c r="C64" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D64" s="48" t="s">
+      <c r="D64" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="E64" s="48" t="s">
+      <c r="E64" s="35" t="s">
         <v>327</v>
       </c>
       <c r="F64" s="7"/>
@@ -8722,10 +8790,10 @@
       <c r="I64" s="13" t="s">
         <v>599</v>
       </c>
-      <c r="J64" s="50" t="s">
+      <c r="J64" s="37" t="s">
         <v>788</v>
       </c>
-      <c r="K64" s="50" t="s">
+      <c r="K64" s="37" t="s">
         <v>789</v>
       </c>
       <c r="L64" s="13"/>
@@ -8736,21 +8804,21 @@
       <c r="O64" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="P64" s="48" t="s">
+      <c r="P64" s="35" t="s">
         <v>1228</v>
       </c>
-      <c r="Q64" s="48" t="s">
+      <c r="Q64" s="35" t="s">
         <v>1229</v>
       </c>
-      <c r="R64" s="48" t="s">
+      <c r="R64" s="35" t="s">
         <v>1427</v>
       </c>
-      <c r="S64" s="49" t="s">
+      <c r="S64" s="36" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A65" s="34">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A65" s="27">
         <v>60</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -8759,10 +8827,10 @@
       <c r="C65" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D65" s="48" t="s">
+      <c r="D65" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="E65" s="48" t="s">
+      <c r="E65" s="35" t="s">
         <v>329</v>
       </c>
       <c r="F65" s="7"/>
@@ -8773,10 +8841,10 @@
       <c r="I65" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="J65" s="50" t="s">
+      <c r="J65" s="37" t="s">
         <v>790</v>
       </c>
-      <c r="K65" s="50" t="s">
+      <c r="K65" s="37" t="s">
         <v>791</v>
       </c>
       <c r="L65" s="13"/>
@@ -8787,17 +8855,17 @@
       <c r="O65" s="6" t="s">
         <v>1094</v>
       </c>
-      <c r="P65" s="48" t="s">
+      <c r="P65" s="35" t="s">
         <v>1230</v>
       </c>
-      <c r="Q65" s="48" t="s">
+      <c r="Q65" s="35" t="s">
         <v>1231</v>
       </c>
       <c r="R65" s="7"/>
       <c r="S65" s="8"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A66" s="34">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A66" s="27">
         <v>61</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -8806,10 +8874,10 @@
       <c r="C66" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="48" t="s">
+      <c r="D66" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="E66" s="48" t="s">
+      <c r="E66" s="35" t="s">
         <v>331</v>
       </c>
       <c r="F66" s="7"/>
@@ -8820,10 +8888,10 @@
       <c r="I66" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="J66" s="50" t="s">
+      <c r="J66" s="37" t="s">
         <v>792</v>
       </c>
-      <c r="K66" s="50" t="s">
+      <c r="K66" s="37" t="s">
         <v>793</v>
       </c>
       <c r="L66" s="13"/>
@@ -8834,17 +8902,17 @@
       <c r="O66" s="6" t="s">
         <v>1096</v>
       </c>
-      <c r="P66" s="48" t="s">
+      <c r="P66" s="35" t="s">
         <v>1232</v>
       </c>
-      <c r="Q66" s="48" t="s">
+      <c r="Q66" s="35" t="s">
         <v>1233</v>
       </c>
       <c r="R66" s="7"/>
       <c r="S66" s="8"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A67" s="34">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A67" s="27">
         <v>62</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -8853,10 +8921,10 @@
       <c r="C67" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D67" s="48" t="s">
+      <c r="D67" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="E67" s="48" t="s">
+      <c r="E67" s="35" t="s">
         <v>333</v>
       </c>
       <c r="F67" s="7"/>
@@ -8867,10 +8935,10 @@
       <c r="I67" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="J67" s="50" t="s">
+      <c r="J67" s="37" t="s">
         <v>794</v>
       </c>
-      <c r="K67" s="50" t="s">
+      <c r="K67" s="37" t="s">
         <v>795</v>
       </c>
       <c r="L67" s="13"/>
@@ -8881,17 +8949,17 @@
       <c r="O67" s="6" t="s">
         <v>1098</v>
       </c>
-      <c r="P67" s="48" t="s">
+      <c r="P67" s="35" t="s">
         <v>1234</v>
       </c>
-      <c r="Q67" s="48" t="s">
+      <c r="Q67" s="35" t="s">
         <v>1235</v>
       </c>
       <c r="R67" s="7"/>
       <c r="S67" s="8"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A68" s="27">
         <v>63</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -8900,10 +8968,10 @@
       <c r="C68" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D68" s="48" t="s">
+      <c r="D68" s="35" t="s">
         <v>334</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="35" t="s">
         <v>335</v>
       </c>
       <c r="F68" s="7"/>
@@ -8914,10 +8982,10 @@
       <c r="I68" s="13" t="s">
         <v>607</v>
       </c>
-      <c r="J68" s="50" t="s">
+      <c r="J68" s="37" t="s">
         <v>796</v>
       </c>
-      <c r="K68" s="50" t="s">
+      <c r="K68" s="37" t="s">
         <v>797</v>
       </c>
       <c r="L68" s="13"/>
@@ -8928,17 +8996,17 @@
       <c r="O68" s="6" t="s">
         <v>1100</v>
       </c>
-      <c r="P68" s="48" t="s">
+      <c r="P68" s="35" t="s">
         <v>1236</v>
       </c>
-      <c r="Q68" s="48" t="s">
+      <c r="Q68" s="35" t="s">
         <v>1237</v>
       </c>
       <c r="R68" s="7"/>
       <c r="S68" s="8"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A69" s="34">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A69" s="27">
         <v>64</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -8947,10 +9015,10 @@
       <c r="C69" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D69" s="48" t="s">
+      <c r="D69" s="35" t="s">
         <v>336</v>
       </c>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="35" t="s">
         <v>337</v>
       </c>
       <c r="F69" s="7"/>
@@ -8961,10 +9029,10 @@
       <c r="I69" s="13" t="s">
         <v>609</v>
       </c>
-      <c r="J69" s="50" t="s">
+      <c r="J69" s="37" t="s">
         <v>798</v>
       </c>
-      <c r="K69" s="50" t="s">
+      <c r="K69" s="37" t="s">
         <v>799</v>
       </c>
       <c r="L69" s="13"/>
@@ -8975,17 +9043,17 @@
       <c r="O69" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="P69" s="48" t="s">
+      <c r="P69" s="35" t="s">
         <v>1238</v>
       </c>
-      <c r="Q69" s="48" t="s">
+      <c r="Q69" s="35" t="s">
         <v>1239</v>
       </c>
       <c r="R69" s="7"/>
       <c r="S69" s="8"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A70" s="34">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A70" s="27">
         <v>65</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -8994,10 +9062,10 @@
       <c r="C70" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D70" s="48" t="s">
+      <c r="D70" s="35" t="s">
         <v>338</v>
       </c>
-      <c r="E70" s="48" t="s">
+      <c r="E70" s="35" t="s">
         <v>339</v>
       </c>
       <c r="F70" s="7"/>
@@ -9008,10 +9076,10 @@
       <c r="I70" s="13" t="s">
         <v>611</v>
       </c>
-      <c r="J70" s="50" t="s">
+      <c r="J70" s="37" t="s">
         <v>800</v>
       </c>
-      <c r="K70" s="50" t="s">
+      <c r="K70" s="37" t="s">
         <v>801</v>
       </c>
       <c r="L70" s="13"/>
@@ -9022,17 +9090,17 @@
       <c r="O70" s="6" t="s">
         <v>1104</v>
       </c>
-      <c r="P70" s="48" t="s">
+      <c r="P70" s="35" t="s">
         <v>1240</v>
       </c>
-      <c r="Q70" s="48" t="s">
+      <c r="Q70" s="35" t="s">
         <v>1241</v>
       </c>
       <c r="R70" s="7"/>
       <c r="S70" s="8"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="34">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A71" s="27">
         <v>66</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -9041,10 +9109,10 @@
       <c r="C71" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D71" s="48" t="s">
+      <c r="D71" s="35" t="s">
         <v>340</v>
       </c>
-      <c r="E71" s="48" t="s">
+      <c r="E71" s="35" t="s">
         <v>341</v>
       </c>
       <c r="F71" s="7"/>
@@ -9055,10 +9123,10 @@
       <c r="I71" s="13" t="s">
         <v>613</v>
       </c>
-      <c r="J71" s="50" t="s">
+      <c r="J71" s="37" t="s">
         <v>802</v>
       </c>
-      <c r="K71" s="50" t="s">
+      <c r="K71" s="37" t="s">
         <v>803</v>
       </c>
       <c r="L71" s="13"/>
@@ -9069,17 +9137,17 @@
       <c r="O71" s="6" t="s">
         <v>1106</v>
       </c>
-      <c r="P71" s="48" t="s">
+      <c r="P71" s="35" t="s">
         <v>1242</v>
       </c>
-      <c r="Q71" s="48" t="s">
+      <c r="Q71" s="35" t="s">
         <v>1243</v>
       </c>
       <c r="R71" s="7"/>
       <c r="S71" s="8"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A72" s="34">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A72" s="27">
         <v>67</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -9088,10 +9156,10 @@
       <c r="C72" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D72" s="48" t="s">
+      <c r="D72" s="35" t="s">
         <v>342</v>
       </c>
-      <c r="E72" s="48" t="s">
+      <c r="E72" s="35" t="s">
         <v>343</v>
       </c>
       <c r="F72" s="7"/>
@@ -9102,10 +9170,10 @@
       <c r="I72" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="J72" s="50" t="s">
+      <c r="J72" s="37" t="s">
         <v>804</v>
       </c>
-      <c r="K72" s="50" t="s">
+      <c r="K72" s="37" t="s">
         <v>805</v>
       </c>
       <c r="L72" s="13"/>
@@ -9116,17 +9184,17 @@
       <c r="O72" s="6" t="s">
         <v>1108</v>
       </c>
-      <c r="P72" s="48" t="s">
+      <c r="P72" s="35" t="s">
         <v>1244</v>
       </c>
-      <c r="Q72" s="48" t="s">
+      <c r="Q72" s="35" t="s">
         <v>1245</v>
       </c>
       <c r="R72" s="7"/>
       <c r="S72" s="8"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A73" s="34">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A73" s="27">
         <v>68</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -9135,10 +9203,10 @@
       <c r="C73" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D73" s="48" t="s">
+      <c r="D73" s="35" t="s">
         <v>344</v>
       </c>
-      <c r="E73" s="48" t="s">
+      <c r="E73" s="35" t="s">
         <v>345</v>
       </c>
       <c r="F73" s="7"/>
@@ -9149,10 +9217,10 @@
       <c r="I73" s="13" t="s">
         <v>617</v>
       </c>
-      <c r="J73" s="50" t="s">
+      <c r="J73" s="37" t="s">
         <v>806</v>
       </c>
-      <c r="K73" s="50" t="s">
+      <c r="K73" s="37" t="s">
         <v>807</v>
       </c>
       <c r="L73" s="13"/>
@@ -9163,17 +9231,17 @@
       <c r="O73" s="6" t="s">
         <v>1110</v>
       </c>
-      <c r="P73" s="48" t="s">
+      <c r="P73" s="35" t="s">
         <v>1246</v>
       </c>
-      <c r="Q73" s="48" t="s">
+      <c r="Q73" s="35" t="s">
         <v>1247</v>
       </c>
       <c r="R73" s="7"/>
       <c r="S73" s="8"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A74" s="34">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A74" s="27">
         <v>69</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -9182,10 +9250,10 @@
       <c r="C74" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D74" s="48" t="s">
+      <c r="D74" s="35" t="s">
         <v>346</v>
       </c>
-      <c r="E74" s="48" t="s">
+      <c r="E74" s="35" t="s">
         <v>347</v>
       </c>
       <c r="F74" s="7"/>
@@ -9196,10 +9264,10 @@
       <c r="I74" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="J74" s="50" t="s">
+      <c r="J74" s="37" t="s">
         <v>808</v>
       </c>
-      <c r="K74" s="50" t="s">
+      <c r="K74" s="37" t="s">
         <v>809</v>
       </c>
       <c r="L74" s="13"/>
@@ -9210,17 +9278,17 @@
       <c r="O74" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="P74" s="48" t="s">
+      <c r="P74" s="35" t="s">
         <v>1248</v>
       </c>
-      <c r="Q74" s="48" t="s">
+      <c r="Q74" s="35" t="s">
         <v>1249</v>
       </c>
       <c r="R74" s="7"/>
       <c r="S74" s="8"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="34">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A75" s="27">
         <v>70</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -9229,10 +9297,10 @@
       <c r="C75" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D75" s="48" t="s">
+      <c r="D75" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="35" t="s">
         <v>349</v>
       </c>
       <c r="F75" s="7"/>
@@ -9243,10 +9311,10 @@
       <c r="I75" s="13" t="s">
         <v>621</v>
       </c>
-      <c r="J75" s="50" t="s">
+      <c r="J75" s="37" t="s">
         <v>810</v>
       </c>
-      <c r="K75" s="50" t="s">
+      <c r="K75" s="37" t="s">
         <v>811</v>
       </c>
       <c r="L75" s="13"/>
@@ -9257,17 +9325,17 @@
       <c r="O75" s="6" t="s">
         <v>1428</v>
       </c>
-      <c r="P75" s="48" t="s">
+      <c r="P75" s="35" t="s">
         <v>1250</v>
       </c>
-      <c r="Q75" s="48" t="s">
+      <c r="Q75" s="35" t="s">
         <v>1251</v>
       </c>
       <c r="R75" s="7"/>
       <c r="S75" s="8"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A76" s="34">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A76" s="27">
         <v>71</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -9276,10 +9344,10 @@
       <c r="C76" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D76" s="48" t="s">
+      <c r="D76" s="35" t="s">
         <v>350</v>
       </c>
-      <c r="E76" s="48" t="s">
+      <c r="E76" s="35" t="s">
         <v>351</v>
       </c>
       <c r="F76" s="7"/>
@@ -9290,27 +9358,27 @@
       <c r="I76" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="J76" s="50" t="s">
+      <c r="J76" s="37" t="s">
         <v>812</v>
       </c>
-      <c r="K76" s="50" t="s">
+      <c r="K76" s="37" t="s">
         <v>813</v>
       </c>
       <c r="L76" s="13"/>
       <c r="M76" s="16"/>
-      <c r="N76" s="52"/>
-      <c r="O76" s="48"/>
-      <c r="P76" s="48" t="s">
+      <c r="N76" s="39"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35" t="s">
         <v>1252</v>
       </c>
-      <c r="Q76" s="48" t="s">
+      <c r="Q76" s="35" t="s">
         <v>1253</v>
       </c>
       <c r="R76" s="7"/>
       <c r="S76" s="8"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A77" s="34">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A77" s="27">
         <v>72</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -9319,10 +9387,10 @@
       <c r="C77" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="48" t="s">
+      <c r="D77" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="E77" s="48" t="s">
+      <c r="E77" s="35" t="s">
         <v>353</v>
       </c>
       <c r="F77" s="7"/>
@@ -9333,27 +9401,27 @@
       <c r="I77" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="J77" s="50" t="s">
+      <c r="J77" s="37" t="s">
         <v>814</v>
       </c>
-      <c r="K77" s="50" t="s">
+      <c r="K77" s="37" t="s">
         <v>815</v>
       </c>
       <c r="L77" s="13"/>
       <c r="M77" s="16"/>
-      <c r="N77" s="52"/>
-      <c r="O77" s="48"/>
-      <c r="P77" s="48" t="s">
+      <c r="N77" s="39"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35" t="s">
         <v>1254</v>
       </c>
-      <c r="Q77" s="48" t="s">
+      <c r="Q77" s="35" t="s">
         <v>1255</v>
       </c>
       <c r="R77" s="7"/>
       <c r="S77" s="8"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A78" s="34">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A78" s="27">
         <v>73</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -9362,10 +9430,10 @@
       <c r="C78" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D78" s="48" t="s">
+      <c r="D78" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="E78" s="48" t="s">
+      <c r="E78" s="35" t="s">
         <v>355</v>
       </c>
       <c r="F78" s="7"/>
@@ -9376,27 +9444,27 @@
       <c r="I78" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="J78" s="50" t="s">
+      <c r="J78" s="37" t="s">
         <v>816</v>
       </c>
-      <c r="K78" s="50" t="s">
+      <c r="K78" s="37" t="s">
         <v>817</v>
       </c>
       <c r="L78" s="13"/>
       <c r="M78" s="16"/>
-      <c r="N78" s="52"/>
-      <c r="O78" s="48"/>
-      <c r="P78" s="48" t="s">
+      <c r="N78" s="39"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35" t="s">
         <v>1256</v>
       </c>
-      <c r="Q78" s="48" t="s">
+      <c r="Q78" s="35" t="s">
         <v>1257</v>
       </c>
       <c r="R78" s="7"/>
       <c r="S78" s="8"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A79" s="34">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A79" s="27">
         <v>74</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -9405,10 +9473,10 @@
       <c r="C79" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D79" s="48" t="s">
+      <c r="D79" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="E79" s="48" t="s">
+      <c r="E79" s="35" t="s">
         <v>357</v>
       </c>
       <c r="F79" s="7"/>
@@ -9419,27 +9487,27 @@
       <c r="I79" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="J79" s="50" t="s">
+      <c r="J79" s="37" t="s">
         <v>818</v>
       </c>
-      <c r="K79" s="50" t="s">
+      <c r="K79" s="37" t="s">
         <v>819</v>
       </c>
       <c r="L79" s="13"/>
       <c r="M79" s="16"/>
-      <c r="N79" s="52"/>
-      <c r="O79" s="48"/>
-      <c r="P79" s="48" t="s">
+      <c r="N79" s="39"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35" t="s">
         <v>1258</v>
       </c>
-      <c r="Q79" s="48" t="s">
+      <c r="Q79" s="35" t="s">
         <v>1259</v>
       </c>
       <c r="R79" s="7"/>
       <c r="S79" s="8"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A80" s="34">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A80" s="27">
         <v>75</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -9448,10 +9516,10 @@
       <c r="C80" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D80" s="48" t="s">
+      <c r="D80" s="35" t="s">
         <v>358</v>
       </c>
-      <c r="E80" s="48" t="s">
+      <c r="E80" s="35" t="s">
         <v>359</v>
       </c>
       <c r="F80" s="7"/>
@@ -9462,27 +9530,27 @@
       <c r="I80" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="J80" s="50" t="s">
+      <c r="J80" s="37" t="s">
         <v>820</v>
       </c>
-      <c r="K80" s="50" t="s">
+      <c r="K80" s="37" t="s">
         <v>821</v>
       </c>
       <c r="L80" s="13"/>
       <c r="M80" s="16"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="48"/>
-      <c r="P80" s="48" t="s">
+      <c r="N80" s="39"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35" t="s">
         <v>1260</v>
       </c>
-      <c r="Q80" s="48" t="s">
+      <c r="Q80" s="35" t="s">
         <v>1261</v>
       </c>
       <c r="R80" s="7"/>
       <c r="S80" s="8"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A81" s="34">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A81" s="27">
         <v>76</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -9491,10 +9559,10 @@
       <c r="C81" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="48" t="s">
+      <c r="D81" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="E81" s="48" t="s">
+      <c r="E81" s="35" t="s">
         <v>361</v>
       </c>
       <c r="F81" s="7"/>
@@ -9505,27 +9573,27 @@
       <c r="I81" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="J81" s="50" t="s">
+      <c r="J81" s="37" t="s">
         <v>822</v>
       </c>
-      <c r="K81" s="50" t="s">
+      <c r="K81" s="37" t="s">
         <v>823</v>
       </c>
       <c r="L81" s="13"/>
       <c r="M81" s="16"/>
-      <c r="N81" s="52"/>
-      <c r="O81" s="48"/>
-      <c r="P81" s="48" t="s">
+      <c r="N81" s="39"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35" t="s">
         <v>1262</v>
       </c>
-      <c r="Q81" s="48" t="s">
+      <c r="Q81" s="35" t="s">
         <v>1263</v>
       </c>
       <c r="R81" s="7"/>
       <c r="S81" s="8"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" s="34">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A82" s="27">
         <v>77</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -9534,10 +9602,10 @@
       <c r="C82" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D82" s="48" t="s">
+      <c r="D82" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="E82" s="48" t="s">
+      <c r="E82" s="35" t="s">
         <v>363</v>
       </c>
       <c r="F82" s="7"/>
@@ -9548,27 +9616,27 @@
       <c r="I82" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="J82" s="50" t="s">
+      <c r="J82" s="37" t="s">
         <v>824</v>
       </c>
-      <c r="K82" s="50" t="s">
+      <c r="K82" s="37" t="s">
         <v>825</v>
       </c>
       <c r="L82" s="13"/>
       <c r="M82" s="16"/>
-      <c r="N82" s="52"/>
-      <c r="O82" s="48"/>
-      <c r="P82" s="48" t="s">
+      <c r="N82" s="39"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35" t="s">
         <v>1264</v>
       </c>
-      <c r="Q82" s="48" t="s">
+      <c r="Q82" s="35" t="s">
         <v>1265</v>
       </c>
       <c r="R82" s="7"/>
       <c r="S82" s="8"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" s="34">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A83" s="27">
         <v>78</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -9577,10 +9645,10 @@
       <c r="C83" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D83" s="48" t="s">
+      <c r="D83" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="E83" s="48" t="s">
+      <c r="E83" s="35" t="s">
         <v>365</v>
       </c>
       <c r="F83" s="7"/>
@@ -9591,27 +9659,27 @@
       <c r="I83" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="J83" s="50" t="s">
+      <c r="J83" s="37" t="s">
         <v>826</v>
       </c>
-      <c r="K83" s="50" t="s">
+      <c r="K83" s="37" t="s">
         <v>827</v>
       </c>
       <c r="L83" s="13"/>
       <c r="M83" s="16"/>
-      <c r="N83" s="52"/>
-      <c r="O83" s="48"/>
-      <c r="P83" s="48" t="s">
+      <c r="N83" s="39"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35" t="s">
         <v>1266</v>
       </c>
-      <c r="Q83" s="48" t="s">
+      <c r="Q83" s="35" t="s">
         <v>1267</v>
       </c>
       <c r="R83" s="7"/>
       <c r="S83" s="8"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" s="34">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A84" s="27">
         <v>79</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -9620,10 +9688,10 @@
       <c r="C84" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D84" s="48" t="s">
+      <c r="D84" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="E84" s="48" t="s">
+      <c r="E84" s="35" t="s">
         <v>367</v>
       </c>
       <c r="F84" s="7"/>
@@ -9634,27 +9702,27 @@
       <c r="I84" s="13" t="s">
         <v>639</v>
       </c>
-      <c r="J84" s="50" t="s">
+      <c r="J84" s="37" t="s">
         <v>828</v>
       </c>
-      <c r="K84" s="50" t="s">
+      <c r="K84" s="37" t="s">
         <v>829</v>
       </c>
       <c r="L84" s="13"/>
       <c r="M84" s="16"/>
-      <c r="N84" s="52"/>
-      <c r="O84" s="48"/>
-      <c r="P84" s="48" t="s">
+      <c r="N84" s="39"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35" t="s">
         <v>1268</v>
       </c>
-      <c r="Q84" s="48" t="s">
+      <c r="Q84" s="35" t="s">
         <v>1269</v>
       </c>
       <c r="R84" s="7"/>
       <c r="S84" s="8"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" s="34">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A85" s="27">
         <v>80</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -9663,10 +9731,10 @@
       <c r="C85" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D85" s="48" t="s">
+      <c r="D85" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="E85" s="48" t="s">
+      <c r="E85" s="35" t="s">
         <v>369</v>
       </c>
       <c r="F85" s="7"/>
@@ -9677,27 +9745,27 @@
       <c r="I85" s="13" t="s">
         <v>641</v>
       </c>
-      <c r="J85" s="50" t="s">
+      <c r="J85" s="37" t="s">
         <v>830</v>
       </c>
-      <c r="K85" s="50" t="s">
+      <c r="K85" s="37" t="s">
         <v>831</v>
       </c>
       <c r="L85" s="13"/>
       <c r="M85" s="16"/>
-      <c r="N85" s="52"/>
-      <c r="O85" s="48"/>
-      <c r="P85" s="48" t="s">
+      <c r="N85" s="39"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35" t="s">
         <v>1270</v>
       </c>
-      <c r="Q85" s="48" t="s">
+      <c r="Q85" s="35" t="s">
         <v>1271</v>
       </c>
       <c r="R85" s="7"/>
       <c r="S85" s="8"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" s="34">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A86" s="27">
         <v>81</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -9706,10 +9774,10 @@
       <c r="C86" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D86" s="48" t="s">
+      <c r="D86" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="E86" s="48" t="s">
+      <c r="E86" s="35" t="s">
         <v>371</v>
       </c>
       <c r="F86" s="7"/>
@@ -9720,27 +9788,27 @@
       <c r="I86" s="13" t="s">
         <v>643</v>
       </c>
-      <c r="J86" s="50" t="s">
+      <c r="J86" s="37" t="s">
         <v>832</v>
       </c>
-      <c r="K86" s="50" t="s">
+      <c r="K86" s="37" t="s">
         <v>833</v>
       </c>
       <c r="L86" s="13"/>
       <c r="M86" s="16"/>
-      <c r="N86" s="52"/>
-      <c r="O86" s="48"/>
-      <c r="P86" s="48" t="s">
+      <c r="N86" s="39"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35" t="s">
         <v>1272</v>
       </c>
-      <c r="Q86" s="48" t="s">
+      <c r="Q86" s="35" t="s">
         <v>1273</v>
       </c>
       <c r="R86" s="7"/>
       <c r="S86" s="8"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" s="34">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A87" s="27">
         <v>82</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -9749,10 +9817,10 @@
       <c r="C87" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D87" s="48" t="s">
+      <c r="D87" s="35" t="s">
         <v>372</v>
       </c>
-      <c r="E87" s="48" t="s">
+      <c r="E87" s="35" t="s">
         <v>373</v>
       </c>
       <c r="F87" s="7"/>
@@ -9763,27 +9831,27 @@
       <c r="I87" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="J87" s="50" t="s">
+      <c r="J87" s="37" t="s">
         <v>834</v>
       </c>
-      <c r="K87" s="50" t="s">
+      <c r="K87" s="37" t="s">
         <v>835</v>
       </c>
       <c r="L87" s="13"/>
       <c r="M87" s="16"/>
-      <c r="N87" s="52"/>
-      <c r="O87" s="48"/>
-      <c r="P87" s="48" t="s">
+      <c r="N87" s="39"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35" t="s">
         <v>1274</v>
       </c>
-      <c r="Q87" s="48" t="s">
+      <c r="Q87" s="35" t="s">
         <v>1275</v>
       </c>
       <c r="R87" s="7"/>
       <c r="S87" s="8"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" s="34">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A88" s="27">
         <v>83</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -9792,10 +9860,10 @@
       <c r="C88" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="D88" s="48" t="s">
+      <c r="D88" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="E88" s="48" t="s">
+      <c r="E88" s="35" t="s">
         <v>375</v>
       </c>
       <c r="F88" s="7"/>
@@ -9806,27 +9874,27 @@
       <c r="I88" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="J88" s="50" t="s">
+      <c r="J88" s="37" t="s">
         <v>836</v>
       </c>
-      <c r="K88" s="50" t="s">
+      <c r="K88" s="37" t="s">
         <v>837</v>
       </c>
       <c r="L88" s="13"/>
       <c r="M88" s="16"/>
-      <c r="N88" s="52"/>
-      <c r="O88" s="48"/>
-      <c r="P88" s="48" t="s">
+      <c r="N88" s="39"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35" t="s">
         <v>1276</v>
       </c>
-      <c r="Q88" s="48" t="s">
+      <c r="Q88" s="35" t="s">
         <v>1277</v>
       </c>
       <c r="R88" s="7"/>
       <c r="S88" s="8"/>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" s="34">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A89" s="27">
         <v>84</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -9835,10 +9903,10 @@
       <c r="C89" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="D89" s="48" t="s">
+      <c r="D89" s="35" t="s">
         <v>376</v>
       </c>
-      <c r="E89" s="48" t="s">
+      <c r="E89" s="35" t="s">
         <v>377</v>
       </c>
       <c r="F89" s="7"/>
@@ -9849,27 +9917,27 @@
       <c r="I89" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="J89" s="50" t="s">
+      <c r="J89" s="37" t="s">
         <v>838</v>
       </c>
-      <c r="K89" s="50" t="s">
+      <c r="K89" s="37" t="s">
         <v>105</v>
       </c>
       <c r="L89" s="13"/>
       <c r="M89" s="16"/>
-      <c r="N89" s="52"/>
-      <c r="O89" s="48"/>
-      <c r="P89" s="48" t="s">
+      <c r="N89" s="39"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35" t="s">
         <v>1278</v>
       </c>
-      <c r="Q89" s="48" t="s">
+      <c r="Q89" s="35" t="s">
         <v>1279</v>
       </c>
       <c r="R89" s="7"/>
       <c r="S89" s="8"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" s="34">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A90" s="27">
         <v>85</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -9878,10 +9946,10 @@
       <c r="C90" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="D90" s="48" t="s">
+      <c r="D90" s="35" t="s">
         <v>378</v>
       </c>
-      <c r="E90" s="48" t="s">
+      <c r="E90" s="35" t="s">
         <v>379</v>
       </c>
       <c r="F90" s="7"/>
@@ -9892,27 +9960,27 @@
       <c r="I90" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="J90" s="50" t="s">
+      <c r="J90" s="37" t="s">
         <v>839</v>
       </c>
-      <c r="K90" s="50" t="s">
+      <c r="K90" s="37" t="s">
         <v>840</v>
       </c>
       <c r="L90" s="13"/>
       <c r="M90" s="16"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="48"/>
-      <c r="P90" s="48" t="s">
+      <c r="N90" s="39"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35" t="s">
         <v>1280</v>
       </c>
-      <c r="Q90" s="48" t="s">
+      <c r="Q90" s="35" t="s">
         <v>1281</v>
       </c>
       <c r="R90" s="7"/>
       <c r="S90" s="8"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" s="34">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A91" s="27">
         <v>86</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -9921,10 +9989,10 @@
       <c r="C91" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="D91" s="48" t="s">
+      <c r="D91" s="35" t="s">
         <v>380</v>
       </c>
-      <c r="E91" s="48" t="s">
+      <c r="E91" s="35" t="s">
         <v>381</v>
       </c>
       <c r="F91" s="7"/>
@@ -9935,27 +10003,27 @@
       <c r="I91" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="J91" s="50" t="s">
+      <c r="J91" s="37" t="s">
         <v>841</v>
       </c>
-      <c r="K91" s="50" t="s">
+      <c r="K91" s="37" t="s">
         <v>842</v>
       </c>
       <c r="L91" s="13"/>
       <c r="M91" s="16"/>
-      <c r="N91" s="52"/>
-      <c r="O91" s="48"/>
-      <c r="P91" s="48" t="s">
+      <c r="N91" s="39"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35" t="s">
         <v>1282</v>
       </c>
-      <c r="Q91" s="48" t="s">
+      <c r="Q91" s="35" t="s">
         <v>1283</v>
       </c>
       <c r="R91" s="7"/>
       <c r="S91" s="8"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92" s="34">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A92" s="27">
         <v>87</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -9964,10 +10032,10 @@
       <c r="C92" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D92" s="48" t="s">
+      <c r="D92" s="35" t="s">
         <v>382</v>
       </c>
-      <c r="E92" s="48" t="s">
+      <c r="E92" s="35" t="s">
         <v>383</v>
       </c>
       <c r="F92" s="7"/>
@@ -9978,27 +10046,27 @@
       <c r="I92" s="13" t="s">
         <v>655</v>
       </c>
-      <c r="J92" s="50" t="s">
+      <c r="J92" s="37" t="s">
         <v>843</v>
       </c>
-      <c r="K92" s="50" t="s">
+      <c r="K92" s="37" t="s">
         <v>844</v>
       </c>
       <c r="L92" s="13"/>
       <c r="M92" s="16"/>
-      <c r="N92" s="52"/>
-      <c r="O92" s="48"/>
-      <c r="P92" s="48" t="s">
+      <c r="N92" s="39"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35" t="s">
         <v>1284</v>
       </c>
-      <c r="Q92" s="48" t="s">
+      <c r="Q92" s="35" t="s">
         <v>1285</v>
       </c>
       <c r="R92" s="7"/>
       <c r="S92" s="8"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A93" s="34">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A93" s="27">
         <v>88</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -10007,10 +10075,10 @@
       <c r="C93" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="D93" s="48" t="s">
+      <c r="D93" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="E93" s="48" t="s">
+      <c r="E93" s="35" t="s">
         <v>385</v>
       </c>
       <c r="F93" s="7"/>
@@ -10021,27 +10089,27 @@
       <c r="I93" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="J93" s="50" t="s">
+      <c r="J93" s="37" t="s">
         <v>845</v>
       </c>
-      <c r="K93" s="50" t="s">
+      <c r="K93" s="37" t="s">
         <v>846</v>
       </c>
       <c r="L93" s="13"/>
       <c r="M93" s="16"/>
-      <c r="N93" s="52"/>
-      <c r="O93" s="48"/>
-      <c r="P93" s="48" t="s">
+      <c r="N93" s="39"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35" t="s">
         <v>1286</v>
       </c>
-      <c r="Q93" s="48" t="s">
+      <c r="Q93" s="35" t="s">
         <v>1287</v>
       </c>
       <c r="R93" s="7"/>
       <c r="S93" s="8"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" s="34">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A94" s="27">
         <v>89</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -10050,10 +10118,10 @@
       <c r="C94" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D94" s="48" t="s">
+      <c r="D94" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="E94" s="48" t="s">
+      <c r="E94" s="35" t="s">
         <v>387</v>
       </c>
       <c r="F94" s="7"/>
@@ -10064,27 +10132,27 @@
       <c r="I94" s="13" t="s">
         <v>659</v>
       </c>
-      <c r="J94" s="50" t="s">
+      <c r="J94" s="37" t="s">
         <v>847</v>
       </c>
-      <c r="K94" s="50" t="s">
+      <c r="K94" s="37" t="s">
         <v>848</v>
       </c>
       <c r="L94" s="13"/>
       <c r="M94" s="16"/>
-      <c r="N94" s="52"/>
-      <c r="O94" s="48"/>
-      <c r="P94" s="48" t="s">
+      <c r="N94" s="39"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35" t="s">
         <v>1288</v>
       </c>
-      <c r="Q94" s="48" t="s">
+      <c r="Q94" s="35" t="s">
         <v>1289</v>
       </c>
       <c r="R94" s="7"/>
       <c r="S94" s="8"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="34">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A95" s="27">
         <v>90</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -10093,10 +10161,10 @@
       <c r="C95" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D95" s="48" t="s">
+      <c r="D95" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E95" s="48" t="s">
+      <c r="E95" s="35" t="s">
         <v>389</v>
       </c>
       <c r="F95" s="7"/>
@@ -10107,27 +10175,27 @@
       <c r="I95" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="J95" s="50" t="s">
+      <c r="J95" s="37" t="s">
         <v>849</v>
       </c>
-      <c r="K95" s="50" t="s">
+      <c r="K95" s="37" t="s">
         <v>241</v>
       </c>
       <c r="L95" s="13"/>
       <c r="M95" s="16"/>
-      <c r="N95" s="52"/>
-      <c r="O95" s="48"/>
-      <c r="P95" s="48" t="s">
+      <c r="N95" s="39"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35" t="s">
         <v>1290</v>
       </c>
-      <c r="Q95" s="48" t="s">
+      <c r="Q95" s="35" t="s">
         <v>1291</v>
       </c>
       <c r="R95" s="7"/>
       <c r="S95" s="8"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" s="34">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A96" s="27">
         <v>91</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -10136,10 +10204,10 @@
       <c r="C96" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D96" s="48" t="s">
+      <c r="D96" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="E96" s="48" t="s">
+      <c r="E96" s="35" t="s">
         <v>391</v>
       </c>
       <c r="F96" s="7"/>
@@ -10150,27 +10218,27 @@
       <c r="I96" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="J96" s="50" t="s">
+      <c r="J96" s="37" t="s">
         <v>850</v>
       </c>
-      <c r="K96" s="50" t="s">
+      <c r="K96" s="37" t="s">
         <v>851</v>
       </c>
       <c r="L96" s="13"/>
       <c r="M96" s="16"/>
-      <c r="N96" s="52"/>
-      <c r="O96" s="48"/>
-      <c r="P96" s="48" t="s">
+      <c r="N96" s="39"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35" t="s">
         <v>1292</v>
       </c>
-      <c r="Q96" s="48" t="s">
+      <c r="Q96" s="35" t="s">
         <v>1293</v>
       </c>
       <c r="R96" s="7"/>
       <c r="S96" s="8"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A97" s="34">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A97" s="27">
         <v>92</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -10179,10 +10247,10 @@
       <c r="C97" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D97" s="48" t="s">
+      <c r="D97" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="E97" s="48" t="s">
+      <c r="E97" s="35" t="s">
         <v>393</v>
       </c>
       <c r="F97" s="7"/>
@@ -10193,27 +10261,27 @@
       <c r="I97" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="J97" s="50" t="s">
+      <c r="J97" s="37" t="s">
         <v>852</v>
       </c>
-      <c r="K97" s="50" t="s">
+      <c r="K97" s="37" t="s">
         <v>853</v>
       </c>
       <c r="L97" s="13"/>
       <c r="M97" s="16"/>
-      <c r="N97" s="52"/>
-      <c r="O97" s="48"/>
-      <c r="P97" s="48" t="s">
+      <c r="N97" s="39"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35" t="s">
         <v>1294</v>
       </c>
-      <c r="Q97" s="48" t="s">
+      <c r="Q97" s="35" t="s">
         <v>1295</v>
       </c>
       <c r="R97" s="7"/>
       <c r="S97" s="8"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A98" s="34">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A98" s="27">
         <v>93</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -10222,10 +10290,10 @@
       <c r="C98" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="48" t="s">
+      <c r="D98" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="E98" s="48" t="s">
+      <c r="E98" s="35" t="s">
         <v>395</v>
       </c>
       <c r="F98" s="7"/>
@@ -10236,27 +10304,27 @@
       <c r="I98" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="J98" s="50" t="s">
+      <c r="J98" s="37" t="s">
         <v>854</v>
       </c>
-      <c r="K98" s="50" t="s">
+      <c r="K98" s="37" t="s">
         <v>855</v>
       </c>
       <c r="L98" s="13"/>
       <c r="M98" s="16"/>
-      <c r="N98" s="52"/>
-      <c r="O98" s="48"/>
-      <c r="P98" s="48" t="s">
+      <c r="N98" s="39"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35" t="s">
         <v>1296</v>
       </c>
-      <c r="Q98" s="48" t="s">
+      <c r="Q98" s="35" t="s">
         <v>1297</v>
       </c>
       <c r="R98" s="7"/>
       <c r="S98" s="8"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A99" s="34">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A99" s="27">
         <v>94</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -10265,10 +10333,10 @@
       <c r="C99" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D99" s="48" t="s">
+      <c r="D99" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="E99" s="48" t="s">
+      <c r="E99" s="35" t="s">
         <v>397</v>
       </c>
       <c r="F99" s="7"/>
@@ -10279,27 +10347,27 @@
       <c r="I99" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="J99" s="50" t="s">
+      <c r="J99" s="37" t="s">
         <v>856</v>
       </c>
-      <c r="K99" s="50" t="s">
+      <c r="K99" s="37" t="s">
         <v>857</v>
       </c>
       <c r="L99" s="13"/>
       <c r="M99" s="16"/>
-      <c r="N99" s="52"/>
-      <c r="O99" s="48"/>
-      <c r="P99" s="48" t="s">
+      <c r="N99" s="39"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35" t="s">
         <v>1298</v>
       </c>
-      <c r="Q99" s="48" t="s">
+      <c r="Q99" s="35" t="s">
         <v>1299</v>
       </c>
       <c r="R99" s="7"/>
       <c r="S99" s="8"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A100" s="34">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A100" s="27">
         <v>95</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -10308,10 +10376,10 @@
       <c r="C100" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D100" s="48" t="s">
+      <c r="D100" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="E100" s="48" t="s">
+      <c r="E100" s="35" t="s">
         <v>399</v>
       </c>
       <c r="F100" s="7"/>
@@ -10322,225 +10390,225 @@
       <c r="I100" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="J100" s="50" t="s">
+      <c r="J100" s="37" t="s">
         <v>858</v>
       </c>
-      <c r="K100" s="50" t="s">
+      <c r="K100" s="37" t="s">
         <v>859</v>
       </c>
       <c r="L100" s="13"/>
       <c r="M100" s="16"/>
-      <c r="N100" s="52"/>
-      <c r="O100" s="48"/>
-      <c r="P100" s="48" t="s">
+      <c r="N100" s="39"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35" t="s">
         <v>1300</v>
       </c>
-      <c r="Q100" s="48" t="s">
+      <c r="Q100" s="35" t="s">
         <v>1301</v>
       </c>
       <c r="R100" s="7"/>
       <c r="S100" s="8"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A101" s="34">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A101" s="27">
         <v>96</v>
       </c>
-      <c r="B101" s="53"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="48" t="s">
+      <c r="B101" s="40"/>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="E101" s="48" t="s">
+      <c r="E101" s="35" t="s">
         <v>401</v>
       </c>
       <c r="F101" s="7"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="54"/>
-      <c r="I101" s="50"/>
-      <c r="J101" s="50" t="s">
+      <c r="H101" s="41"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37" t="s">
         <v>860</v>
       </c>
-      <c r="K101" s="50" t="s">
+      <c r="K101" s="37" t="s">
         <v>861</v>
       </c>
       <c r="L101" s="13"/>
       <c r="M101" s="16"/>
-      <c r="N101" s="52"/>
-      <c r="O101" s="48"/>
-      <c r="P101" s="48" t="s">
+      <c r="N101" s="39"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35" t="s">
         <v>1302</v>
       </c>
-      <c r="Q101" s="48" t="s">
+      <c r="Q101" s="35" t="s">
         <v>1303</v>
       </c>
       <c r="R101" s="7"/>
       <c r="S101" s="8"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A102" s="34">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A102" s="27">
         <v>97</v>
       </c>
-      <c r="B102" s="53"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48" t="s">
+      <c r="B102" s="40"/>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="E102" s="48" t="s">
+      <c r="E102" s="35" t="s">
         <v>403</v>
       </c>
       <c r="F102" s="7"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="50"/>
-      <c r="J102" s="50" t="s">
+      <c r="H102" s="41"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37" t="s">
         <v>862</v>
       </c>
-      <c r="K102" s="50" t="s">
+      <c r="K102" s="37" t="s">
         <v>863</v>
       </c>
       <c r="L102" s="13"/>
       <c r="M102" s="16"/>
-      <c r="N102" s="52"/>
-      <c r="O102" s="48"/>
-      <c r="P102" s="48" t="s">
+      <c r="N102" s="39"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35" t="s">
         <v>1304</v>
       </c>
-      <c r="Q102" s="48" t="s">
+      <c r="Q102" s="35" t="s">
         <v>1305</v>
       </c>
       <c r="R102" s="7"/>
       <c r="S102" s="8"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A103" s="34">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A103" s="27">
         <v>98</v>
       </c>
-      <c r="B103" s="53"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48" t="s">
+      <c r="B103" s="40"/>
+      <c r="C103" s="35"/>
+      <c r="D103" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="E103" s="48" t="s">
+      <c r="E103" s="35" t="s">
         <v>405</v>
       </c>
       <c r="F103" s="7"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="54"/>
-      <c r="I103" s="50"/>
-      <c r="J103" s="50" t="s">
+      <c r="H103" s="41"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37" t="s">
         <v>864</v>
       </c>
-      <c r="K103" s="50" t="s">
+      <c r="K103" s="37" t="s">
         <v>865</v>
       </c>
       <c r="L103" s="13"/>
       <c r="M103" s="16"/>
-      <c r="N103" s="52"/>
-      <c r="O103" s="48"/>
-      <c r="P103" s="48" t="s">
+      <c r="N103" s="39"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35" t="s">
         <v>1306</v>
       </c>
-      <c r="Q103" s="48" t="s">
+      <c r="Q103" s="35" t="s">
         <v>1307</v>
       </c>
       <c r="R103" s="7"/>
       <c r="S103" s="8"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A104" s="34">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A104" s="27">
         <v>99</v>
       </c>
-      <c r="B104" s="53"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="48" t="s">
+      <c r="B104" s="40"/>
+      <c r="C104" s="35"/>
+      <c r="D104" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="E104" s="48" t="s">
+      <c r="E104" s="35" t="s">
         <v>407</v>
       </c>
       <c r="F104" s="7"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="54"/>
-      <c r="I104" s="50"/>
-      <c r="J104" s="50" t="s">
+      <c r="H104" s="41"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37" t="s">
         <v>866</v>
       </c>
-      <c r="K104" s="50" t="s">
+      <c r="K104" s="37" t="s">
         <v>867</v>
       </c>
       <c r="L104" s="13"/>
       <c r="M104" s="16"/>
-      <c r="N104" s="52"/>
-      <c r="O104" s="48"/>
-      <c r="P104" s="48" t="s">
+      <c r="N104" s="39"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35" t="s">
         <v>1308</v>
       </c>
-      <c r="Q104" s="48" t="s">
+      <c r="Q104" s="35" t="s">
         <v>1309</v>
       </c>
       <c r="R104" s="7"/>
       <c r="S104" s="8"/>
     </row>
-    <row r="105" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="35">
+    <row r="105" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="28">
         <v>100</v>
       </c>
-      <c r="B105" s="55"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56" t="s">
+      <c r="B105" s="42"/>
+      <c r="C105" s="43"/>
+      <c r="D105" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="E105" s="56" t="s">
+      <c r="E105" s="43" t="s">
         <v>409</v>
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="9"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58" t="s">
+      <c r="H105" s="44"/>
+      <c r="I105" s="45"/>
+      <c r="J105" s="45" t="s">
         <v>868</v>
       </c>
-      <c r="K105" s="58" t="s">
+      <c r="K105" s="45" t="s">
         <v>869</v>
       </c>
       <c r="L105" s="14"/>
       <c r="M105" s="17"/>
-      <c r="N105" s="59"/>
-      <c r="O105" s="56"/>
-      <c r="P105" s="56" t="s">
+      <c r="N105" s="46"/>
+      <c r="O105" s="43"/>
+      <c r="P105" s="43" t="s">
         <v>1310</v>
       </c>
-      <c r="Q105" s="56" t="s">
+      <c r="Q105" s="43" t="s">
         <v>1311</v>
       </c>
       <c r="R105" s="11"/>
       <c r="S105" s="9"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
-      <c r="L106" s="21"/>
-      <c r="M106" s="21"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
       <c r="L107" s="15"/>
       <c r="M107" s="15"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
       <c r="L108" s="15"/>
       <c r="M108" s="15"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="L109" s="15"/>
       <c r="M109" s="15"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="L110" s="15"/>
       <c r="M110" s="15"/>
     </row>
@@ -10564,7 +10632,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10574,7 +10642,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
